--- a/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
+++ b/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Produção Dipolos Booster" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="60">
   <si>
     <t>n</t>
   </si>
@@ -170,6 +170,45 @@
   <si>
     <t>Rep 2</t>
   </si>
+  <si>
+    <t>bd028</t>
+  </si>
+  <si>
+    <t>bd026</t>
+  </si>
+  <si>
+    <t>bd027</t>
+  </si>
+  <si>
+    <t>bd033</t>
+  </si>
+  <si>
+    <t>bd029</t>
+  </si>
+  <si>
+    <t>bd030</t>
+  </si>
+  <si>
+    <t>bd031</t>
+  </si>
+  <si>
+    <t>bd032</t>
+  </si>
+  <si>
+    <t>bd034</t>
+  </si>
+  <si>
+    <t>bd035</t>
+  </si>
+  <si>
+    <t>bd038</t>
+  </si>
+  <si>
+    <t>bd036</t>
+  </si>
+  <si>
+    <t>bd037</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +252,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -313,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -366,24 +426,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -518,9 +571,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -583,16 +636,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2569999999999999</c:v>
                 </c:pt>
@@ -655,6 +741,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-1.2585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2545999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,9 +805,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -751,16 +870,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
@@ -825,6 +977,36 @@
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -857,9 +1039,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -922,16 +1104,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
@@ -996,6 +1211,36 @@
                   <c:v>-1.25561375</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
               </c:numCache>
@@ -1036,12 +1281,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AG$7:$AG$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AG$7:$AG$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>-1.2573000000000001</c:v>
                 </c:pt>
@@ -1059,6 +1408,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.2591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2546999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2545999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,12 +1453,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AJ$7:$AJ$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AJ$7:$AJ$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>-1.2568999999999999</c:v>
                 </c:pt>
@@ -1118,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.2591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2546999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,9 +1883,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -1486,16 +1948,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.4262000000000001</c:v>
                 </c:pt>
@@ -1558,6 +2053,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.4277000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4333999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4315000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4355000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4285000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4424000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4325000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4340999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,9 +2117,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -1654,16 +2182,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.41683</c:v>
                 </c:pt>
@@ -1728,6 +2289,36 @@
                   <c:v>2.41683</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.41683</c:v>
                 </c:pt>
               </c:numCache>
@@ -1760,9 +2351,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -1825,16 +2416,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
@@ -1899,6 +2523,36 @@
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1939,6 +2593,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AH$7:$AH$27</c:f>
@@ -2001,6 +2759,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AK$7:$AK$27</c:f>
@@ -2324,9 +3186,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -2389,16 +3251,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>26.6981</c:v>
                 </c:pt>
@@ -2461,6 +3356,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>26.977499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.6173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.561800000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.1432</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.814</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.348600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.6464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.664899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.909099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.2608</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.152100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,9 +3420,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -2557,16 +3485,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
@@ -2631,6 +3592,36 @@
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -2663,9 +3654,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -2728,16 +3719,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
@@ -2802,6 +3826,36 @@
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2842,6 +3896,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AI$7:$AI$27</c:f>
@@ -2904,6 +4062,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AL$7:$AL$27</c:f>
@@ -3227,9 +4489,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -3292,16 +4554,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2569999999999999</c:v>
                 </c:pt>
@@ -3364,6 +4659,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-1.2585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2545999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,9 +4723,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -3460,16 +4788,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
@@ -3534,6 +4895,36 @@
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -3566,9 +4957,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -3631,16 +5022,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
@@ -3705,6 +5129,36 @@
                   <c:v>-1.25561375</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
               </c:numCache>
@@ -3745,6 +5199,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AG$7:$AG$27</c:f>
@@ -3807,6 +5365,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AJ$7:$AJ$27</c:f>
@@ -4130,9 +5792,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -4195,16 +5857,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.4262000000000001</c:v>
                 </c:pt>
@@ -4267,6 +5962,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.4277000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4333999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4315000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4355000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4285000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4424000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4325000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4340999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4298,9 +6026,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -4363,16 +6091,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.41683</c:v>
                 </c:pt>
@@ -4437,6 +6198,36 @@
                   <c:v>2.41683</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.41683</c:v>
                 </c:pt>
               </c:numCache>
@@ -4469,9 +6260,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -4534,16 +6325,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
@@ -4608,6 +6432,36 @@
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -4648,12 +6502,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AH$7:$AH$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AH$7:$AH$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>2.4337</c:v>
                 </c:pt>
@@ -4671,6 +6629,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4363999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4356</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4239999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,12 +6674,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AK$7:$AK$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AK$7:$AK$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>2.4336000000000002</c:v>
                 </c:pt>
@@ -4730,6 +6798,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5033,9 +7104,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -5098,16 +7169,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>26.6981</c:v>
                 </c:pt>
@@ -5170,6 +7274,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>26.977499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.6173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.561800000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.1432</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.814</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.348600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.6464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.664899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.909099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.2608</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.152100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,9 +7338,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -5266,16 +7403,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
@@ -5340,6 +7510,36 @@
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -5372,9 +7572,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -5437,16 +7637,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
@@ -5511,6 +7744,36 @@
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5551,12 +7814,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AI$7:$AI$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AI$7:$AI$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>27.203099999999999</c:v>
                 </c:pt>
@@ -5574,6 +7941,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>26.594899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.312000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.393999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5613,12 +7986,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AL$7:$AL$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AL$7:$AL$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>26.619499999999999</c:v>
                 </c:pt>
@@ -5633,6 +8110,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>26.4712</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.9861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,9 +8416,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -6001,16 +8481,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AC$7:$AC$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2569999999999999</c:v>
                 </c:pt>
@@ -6073,6 +8586,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-1.2585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2575000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2567999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2558</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2566999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2551000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2545999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6112,12 +8658,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AG$7:$AG$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AG$7:$AG$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>-1.2573000000000001</c:v>
                 </c:pt>
@@ -6135,6 +8785,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.2591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2546999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.2545999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6174,12 +8830,116 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AJ$7:$AJ$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AJ$7:$AJ$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>-1.2568999999999999</c:v>
                 </c:pt>
@@ -6194,6 +8954,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-1.2591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2546999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6225,9 +8988,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -6290,16 +9053,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AU$7:$AU$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
@@ -6364,6 +9160,36 @@
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2593862500000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.2593862500000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -6396,9 +9222,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -6461,16 +9287,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AV$7:$AV$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
@@ -6535,6 +9394,36 @@
                   <c:v>-1.25561375</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.25561375</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>-1.25561375</c:v>
                 </c:pt>
               </c:numCache>
@@ -6867,7 +9756,7 @@
             <c:strRef>
               <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -6930,16 +9819,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AD$7:$AD$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.4262000000000001</c:v>
                 </c:pt>
@@ -7002,6 +9894,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.4277000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4333999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4315000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4355000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4245000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4260999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4285000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4424000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4325000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4340999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,10 +9968,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AH$7:$AH$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AH$7:$AH$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>2.4337</c:v>
                 </c:pt>
@@ -7064,6 +9989,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4363999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4356</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4239999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7105,10 +10036,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AK$7:$AK$27</c:f>
+              <c:f>'Produção Dipolos Booster'!$AK$7:$AK$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="2">
                   <c:v>2.4336000000000002</c:v>
                 </c:pt>
@@ -7123,6 +10054,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7156,7 +10090,7 @@
             <c:strRef>
               <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -7219,16 +10153,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AX$7:$AX$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.41683</c:v>
                 </c:pt>
@@ -7293,6 +10230,36 @@
                   <c:v>2.41683</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.41683</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.41683</c:v>
                 </c:pt>
               </c:numCache>
@@ -7327,7 +10294,7 @@
             <c:strRef>
               <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -7390,16 +10357,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AW$7:$AW$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
@@ -7464,6 +10434,36 @@
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5407700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2.5407700000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -7794,9 +10794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -7859,16 +10859,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AE$7:$AE$38</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>26.6981</c:v>
                 </c:pt>
@@ -7931,6 +10964,39 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>26.977499999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.6173</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.561800000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.1432</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.814</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.348600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.6464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.664899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.909099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.2608</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.152100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7970,6 +11036,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AI$7:$AI$27</c:f>
@@ -8032,6 +11202,110 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>bd004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bd005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bd006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bd007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bd008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bd009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bd010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bd011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bd012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bd013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bd014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>bd015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>bd016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>bd017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>bd018</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>bd019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bd020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>bd021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>bd022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>bd023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Produção Dipolos Booster'!$AL$7:$AL$27</c:f>
@@ -8083,9 +11357,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -8148,16 +11422,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AZ$7:$AZ$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
@@ -8222,6 +11529,36 @@
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.552376000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>22.552376000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -8254,9 +11591,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AB$7:$AB$38</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>bd004</c:v>
                 </c:pt>
@@ -8319,16 +11656,49 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>bd024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bd025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>bd026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>bd027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bd028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>bd029</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>bd030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>bd031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>bd032</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>bd033</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>bd034</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bd035</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$28</c:f>
+              <c:f>'Produção Dipolos Booster'!$AY$7:$AY$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
@@ -8393,6 +11763,36 @@
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.703023999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>28.703023999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -13626,7 +17026,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -14290,10 +17690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ108"/>
+  <dimension ref="A1:AZ175"/>
   <sheetViews>
-    <sheetView topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="S19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14384,19 +17784,19 @@
       </c>
       <c r="AC3" s="4">
         <f ca="1">AVERAGE(AC7:AC39)</f>
-        <v>-1.2571285714285718</v>
+        <v>-1.2568375000000001</v>
       </c>
       <c r="AD3" s="4">
         <f ca="1">AVERAGE(AD7:AD39)</f>
-        <v>2.4258380952380953</v>
+        <v>2.4280687500000004</v>
       </c>
       <c r="AE3" s="4">
         <f ca="1">AVERAGE(AE7:AE39)</f>
-        <v>26.658252380952376</v>
+        <v>26.594196874999994</v>
       </c>
       <c r="AF3" s="4">
         <f ca="1">AVERAGE(AF7:AF39)</f>
-        <v>-3.0542857142857132E-2</v>
+        <v>-5.3296874999999987E-2</v>
       </c>
       <c r="AG3" s="2"/>
       <c r="AO3" s="23" t="s">
@@ -14424,19 +17824,19 @@
       </c>
       <c r="AC4" s="4">
         <f ca="1">_xlfn.STDEV.S(AC7:AC39)</f>
-        <v>1.7655432187128198E-3</v>
+        <v>1.6148004970154191E-3</v>
       </c>
       <c r="AD4" s="4">
         <f ca="1">_xlfn.STDEV.S(AD7:AD39)</f>
-        <v>6.6034442672348193E-3</v>
+        <v>6.7712598294128214E-3</v>
       </c>
       <c r="AE4" s="4">
         <f ca="1">_xlfn.STDEV.S(AE7:AE39)</f>
-        <v>0.4007996527182226</v>
+        <v>0.41284735637683195</v>
       </c>
       <c r="AF4" s="4">
         <f ca="1">_xlfn.STDEV.S(AF7:AF39)</f>
-        <v>0.14113026809096826</v>
+        <v>0.12902172731347081</v>
       </c>
       <c r="AO4" s="24" t="s">
         <v>39</v>
@@ -14464,15 +17864,15 @@
       </c>
       <c r="AC5" s="27">
         <f ca="1">ABS((AC4/AC3))</f>
-        <v>1.4044253379004005E-3</v>
+        <v>1.2848124733829305E-3</v>
       </c>
       <c r="AD5" s="27">
         <f t="shared" ref="AD5:AF5" ca="1" si="0">ABS((AD4/AD3))</f>
-        <v>2.7221290160284557E-3</v>
+        <v>2.7887430409097025E-3</v>
       </c>
       <c r="AE5" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5034730971509539E-2</v>
+        <v>1.5523964055667014E-2</v>
       </c>
       <c r="AF5" s="27"/>
       <c r="AG5" s="31" t="s">
@@ -14662,7 +18062,7 @@
         <v>25.741599999999998</v>
       </c>
       <c r="AF8" s="33">
-        <f t="shared" ref="AF8:AF27" ca="1" si="2">INDIRECT(_xlfn.CONCAT("E",AA8+1))</f>
+        <f t="shared" ref="AF8:AF41" ca="1" si="2">INDIRECT(_xlfn.CONCAT("E",AA8+1))</f>
         <v>2.8E-3</v>
       </c>
       <c r="AG8" s="33"/>
@@ -15126,10 +18526,10 @@
         <v>-1.2575000000000001</v>
       </c>
       <c r="X13">
-        <v>-1.2569999999999999</v>
+        <v>-1.2564</v>
       </c>
       <c r="Y13">
-        <v>-4.2799999999999998E-2</v>
+        <v>-8.7400000000000005E-2</v>
       </c>
       <c r="AA13">
         <f t="shared" si="1"/>
@@ -15242,10 +18642,10 @@
         <v>2.4788000000000001</v>
       </c>
       <c r="X14">
-        <v>2.4342000000000001</v>
+        <v>2.4253999999999998</v>
       </c>
       <c r="Y14">
-        <v>-1.8006</v>
+        <v>-2.1526999999999998</v>
       </c>
       <c r="AA14">
         <f t="shared" si="1"/>
@@ -15376,10 +18776,10 @@
         <v>25.627700000000001</v>
       </c>
       <c r="X15">
-        <v>26.729299999999999</v>
+        <v>26.774799999999999</v>
       </c>
       <c r="Y15">
-        <v>4.2984</v>
+        <v>4.476</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
@@ -15552,8 +18952,12 @@
       <c r="O17" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="34"/>
       <c r="AA17" s="30">
-        <f t="shared" ref="AA17:AA27" si="13">AA16+5</f>
+        <f t="shared" ref="AA17:AA49" si="13">AA16+5</f>
         <v>52</v>
       </c>
       <c r="AB17" s="16" t="str">
@@ -15662,6 +19066,10 @@
       <c r="O18">
         <v>-0.18940000000000001</v>
       </c>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
       <c r="AA18" s="30">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -15763,6 +19171,10 @@
       <c r="O19">
         <v>-1.9341999999999999</v>
       </c>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
       <c r="AA19">
         <f t="shared" si="13"/>
         <v>62</v>
@@ -15855,6 +19267,10 @@
       <c r="O20">
         <v>5.1040999999999999</v>
       </c>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
       <c r="AA20">
         <f t="shared" si="13"/>
         <v>67</v>
@@ -16348,15 +19764,15 @@
         <v>bd024</v>
       </c>
       <c r="AC27" s="19">
-        <f t="shared" ref="AC27" ca="1" si="53">INDIRECT(_xlfn.CONCAT("D",AA27+1))</f>
+        <f t="shared" ref="AC27:AC28" ca="1" si="53">INDIRECT(_xlfn.CONCAT("D",AA27+1))</f>
         <v>-1.2585999999999999</v>
       </c>
       <c r="AD27" s="19">
-        <f t="shared" ref="AD27" ca="1" si="54">INDIRECT(_xlfn.CONCAT("D",AA27+2))</f>
+        <f t="shared" ref="AD27:AD28" ca="1" si="54">INDIRECT(_xlfn.CONCAT("D",AA27+2))</f>
         <v>2.4277000000000002</v>
       </c>
       <c r="AE27" s="19">
-        <f t="shared" ref="AE27" ca="1" si="55">INDIRECT(_xlfn.CONCAT("D",AA27+3))</f>
+        <f t="shared" ref="AE27:AE28" ca="1" si="55">INDIRECT(_xlfn.CONCAT("D",AA27+3))</f>
         <v>26.977499999999999</v>
       </c>
       <c r="AF27" s="33">
@@ -16407,16 +19823,36 @@
       <c r="E28">
         <v>-7.0099999999999996E-2</v>
       </c>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
+      <c r="AA28">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+      <c r="AB28" s="36" t="str">
+        <f t="shared" ref="AB28:AB38" ca="1" si="56">INDIRECT(_xlfn.CONCAT("D",AA28))</f>
+        <v>bd025</v>
+      </c>
+      <c r="AC28" s="37">
+        <f t="shared" ca="1" si="53"/>
+        <v>-1.2566999999999999</v>
+      </c>
+      <c r="AD28" s="37">
+        <f t="shared" ca="1" si="54"/>
+        <v>2.4359000000000002</v>
+      </c>
+      <c r="AE28" s="37">
+        <f t="shared" ca="1" si="55"/>
+        <v>26.6173</v>
+      </c>
+      <c r="AF28" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.2399999999999997E-2</v>
+      </c>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
       <c r="AU28" s="6">
         <f>$AC$1+$AC$1*$AC$2</f>
         <v>-1.2593862500000002</v>
@@ -16455,11 +19891,60 @@
       <c r="E29">
         <v>-2.5105</v>
       </c>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
+      <c r="AA29">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+      <c r="AB29" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd026</v>
+      </c>
+      <c r="AC29" s="37">
+        <f t="shared" ref="AC29:AC37" ca="1" si="57">INDIRECT(_xlfn.CONCAT("D",AA29+1))</f>
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="AD29" s="37">
+        <f t="shared" ref="AD29:AD37" ca="1" si="58">INDIRECT(_xlfn.CONCAT("D",AA29+2))</f>
+        <v>2.4333999999999998</v>
+      </c>
+      <c r="AE29" s="37">
+        <f t="shared" ref="AE29:AE37" ca="1" si="59">INDIRECT(_xlfn.CONCAT("D",AA29+3))</f>
+        <v>26.561800000000002</v>
+      </c>
+      <c r="AF29" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AU29" s="6">
+        <f t="shared" ref="AU29:AU38" si="60">$AC$1+$AC$1*$AC$2</f>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV29" s="6">
+        <f t="shared" ref="AV29:AV38" si="61">$AC$1-$AC$1*$AC$2</f>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW29" s="6">
+        <f t="shared" ref="AW29:AW38" si="62">$AD$1+$AD$1*$AD$2</f>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX29" s="6">
+        <f t="shared" ref="AX29:AX38" si="63">$AD$1-$AD$1*$AD$2</f>
+        <v>2.41683</v>
+      </c>
+      <c r="AY29" s="6">
+        <f t="shared" ref="AY29:AY38" si="64">$AE$1+$AE$1*$AE$2</f>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ29" s="6">
+        <f t="shared" ref="AZ29:AZ38" si="65">$AE$1-$AE$1*$AE$2</f>
+        <v>22.552376000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:52">
       <c r="B30">
@@ -16474,11 +19959,60 @@
       <c r="E30">
         <v>5.0068999999999999</v>
       </c>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
+      <c r="AA30">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+      <c r="AB30" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd027</v>
+      </c>
+      <c r="AC30" s="37">
+        <f t="shared" ref="AC30" ca="1" si="66">INDIRECT(_xlfn.CONCAT("D",AA30+1))</f>
+        <v>-1.2567999999999999</v>
+      </c>
+      <c r="AD30" s="37">
+        <f t="shared" ref="AD30" ca="1" si="67">INDIRECT(_xlfn.CONCAT("D",AA30+2))</f>
+        <v>2.4315000000000002</v>
+      </c>
+      <c r="AE30" s="37">
+        <f t="shared" ref="AE30" ca="1" si="68">INDIRECT(_xlfn.CONCAT("D",AA30+3))</f>
+        <v>27.1432</v>
+      </c>
+      <c r="AF30" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.5E-2</v>
+      </c>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="33"/>
+      <c r="AU30" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV30" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW30" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX30" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY30" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ30" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" t="s">
@@ -16487,11 +20021,60 @@
       <c r="B31">
         <v>991.63</v>
       </c>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
+      <c r="AA31">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+      <c r="AB31" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd028</v>
+      </c>
+      <c r="AC31" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2565999999999999</v>
+      </c>
+      <c r="AD31" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4355000000000002</v>
+      </c>
+      <c r="AE31" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>25.814</v>
+      </c>
+      <c r="AF31" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7.4700000000000003E-2</v>
+      </c>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AU31" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV31" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW31" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX31" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY31" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ31" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:52">
       <c r="B32" t="s">
@@ -16506,13 +20089,80 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
+      <c r="AA32" s="30">
+        <f t="shared" si="13"/>
+        <v>127</v>
+      </c>
+      <c r="AB32" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd029</v>
+      </c>
+      <c r="AC32" s="37">
+        <f t="shared" ref="AC32" ca="1" si="69">INDIRECT(_xlfn.CONCAT("D",AA32+1))</f>
+        <v>-1.2551000000000001</v>
+      </c>
+      <c r="AD32" s="37">
+        <f t="shared" ref="AD32" ca="1" si="70">INDIRECT(_xlfn.CONCAT("D",AA32+2))</f>
+        <v>2.4245000000000001</v>
+      </c>
+      <c r="AE32" s="37">
+        <f t="shared" ref="AE32" ca="1" si="71">INDIRECT(_xlfn.CONCAT("D",AA32+3))</f>
+        <v>26.348600000000001</v>
+      </c>
+      <c r="AF32" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.18970000000000001</v>
+      </c>
+      <c r="AG32" s="33">
+        <f t="shared" ref="AG32" ca="1" si="72">INDIRECT(_xlfn.CONCAT("I",AA32+1))</f>
+        <v>-1.2546999999999999</v>
+      </c>
+      <c r="AH32" s="33">
+        <f t="shared" ref="AH32" ca="1" si="73">INDIRECT(_xlfn.CONCAT("i",AA32+2))</f>
+        <v>2.4356</v>
+      </c>
+      <c r="AI32" s="33">
+        <f t="shared" ref="AI32" ca="1" si="74">INDIRECT(_xlfn.CONCAT("I",AA32+3))</f>
+        <v>26.312000000000001</v>
+      </c>
+      <c r="AJ32" s="33">
+        <f t="shared" ref="AJ32" ca="1" si="75">INDIRECT(_xlfn.CONCAT("n",AA32+1))</f>
+        <v>-1.2546999999999999</v>
+      </c>
+      <c r="AK32" s="33">
+        <f t="shared" ref="AK32" ca="1" si="76">INDIRECT(_xlfn.CONCAT("n",AA32+2))</f>
+        <v>2.4251</v>
+      </c>
+      <c r="AL32" s="33">
+        <f t="shared" ref="AL32" ca="1" si="77">INDIRECT(_xlfn.CONCAT("n",AA32+3))</f>
+        <v>26.9861</v>
+      </c>
+      <c r="AU32" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV32" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW32" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX32" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY32" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ32" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:52">
       <c r="B33">
         <v>0</v>
       </c>
@@ -16525,13 +20175,62 @@
       <c r="E33">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
+      <c r="AA33">
+        <f t="shared" si="13"/>
+        <v>132</v>
+      </c>
+      <c r="AB33" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd030</v>
+      </c>
+      <c r="AC33" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2558</v>
+      </c>
+      <c r="AD33" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4312</v>
+      </c>
+      <c r="AE33" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>26.6464</v>
+      </c>
+      <c r="AF33" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.1399</v>
+      </c>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AU33" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV33" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW33" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX33" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY33" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ33" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:52">
       <c r="B34">
         <v>1</v>
       </c>
@@ -16544,13 +20243,62 @@
       <c r="E34">
         <v>-2.3195000000000001</v>
       </c>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
+      <c r="AA34">
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="AB34" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd031</v>
+      </c>
+      <c r="AC34" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2566999999999999</v>
+      </c>
+      <c r="AD34" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4260999999999999</v>
+      </c>
+      <c r="AE34" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>26.664899999999999</v>
+      </c>
+      <c r="AF34" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.3399999999999998E-2</v>
+      </c>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AU34" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV34" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW34" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX34" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY34" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ34" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:52">
       <c r="B35">
         <v>2</v>
       </c>
@@ -16563,13 +20311,62 @@
       <c r="E35">
         <v>4.0734000000000004</v>
       </c>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
+      <c r="AA35">
+        <f t="shared" si="13"/>
+        <v>142</v>
+      </c>
+      <c r="AB35" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd032</v>
+      </c>
+      <c r="AC35" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2557</v>
+      </c>
+      <c r="AD35" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4285000000000001</v>
+      </c>
+      <c r="AE35" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>25.909099999999999</v>
+      </c>
+      <c r="AF35" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.14280000000000001</v>
+      </c>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AU35" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV35" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW35" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX35" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY35" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ35" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:52">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -16600,13 +20397,62 @@
       <c r="Q36">
         <v>991.63</v>
       </c>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="24"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
+      <c r="AA36">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="AB36" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd033</v>
+      </c>
+      <c r="AC36" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2585</v>
+      </c>
+      <c r="AD36" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4424000000000001</v>
+      </c>
+      <c r="AE36" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>26.2608</v>
+      </c>
+      <c r="AF36" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AU36" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV36" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW36" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX36" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY36" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ36" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:52">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -16655,13 +20501,62 @@
       <c r="T37" t="s">
         <v>3</v>
       </c>
-      <c r="AA37" s="12"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
+      <c r="AA37">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="AB37" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd034</v>
+      </c>
+      <c r="AC37" s="37">
+        <f t="shared" ca="1" si="57"/>
+        <v>-1.2551000000000001</v>
+      </c>
+      <c r="AD37" s="37">
+        <f t="shared" ca="1" si="58"/>
+        <v>2.4325000000000001</v>
+      </c>
+      <c r="AE37" s="37">
+        <f t="shared" ca="1" si="59"/>
+        <v>27.072800000000001</v>
+      </c>
+      <c r="AF37" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.19009999999999999</v>
+      </c>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AU37" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV37" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW37" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX37" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY37" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ37" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:52">
       <c r="B38">
         <v>0</v>
       </c>
@@ -16710,13 +20605,71 @@
       <c r="T38">
         <v>0.1215</v>
       </c>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="24"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
+      <c r="AA38" s="30">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="AB38" s="36" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>bd035</v>
+      </c>
+      <c r="AC38" s="37">
+        <f t="shared" ref="AC38" ca="1" si="78">INDIRECT(_xlfn.CONCAT("D",AA38+1))</f>
+        <v>-1.2545999999999999</v>
+      </c>
+      <c r="AD38" s="37">
+        <f t="shared" ref="AD38" ca="1" si="79">INDIRECT(_xlfn.CONCAT("D",AA38+2))</f>
+        <v>2.4340999999999999</v>
+      </c>
+      <c r="AE38" s="37">
+        <f t="shared" ref="AE38" ca="1" si="80">INDIRECT(_xlfn.CONCAT("D",AA38+3))</f>
+        <v>26.152100000000001</v>
+      </c>
+      <c r="AF38" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.23150000000000001</v>
+      </c>
+      <c r="AG38" s="33">
+        <f t="shared" ref="AG38" ca="1" si="81">INDIRECT(_xlfn.CONCAT("I",AA38+1))</f>
+        <v>-1.2545999999999999</v>
+      </c>
+      <c r="AH38" s="33">
+        <f t="shared" ref="AH38" ca="1" si="82">INDIRECT(_xlfn.CONCAT("i",AA38+2))</f>
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="AI38" s="33">
+        <f t="shared" ref="AI38" ca="1" si="83">INDIRECT(_xlfn.CONCAT("I",AA38+3))</f>
+        <v>26.393999999999998</v>
+      </c>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AU38" s="6">
+        <f t="shared" si="60"/>
+        <v>-1.2593862500000002</v>
+      </c>
+      <c r="AV38" s="6">
+        <f t="shared" si="61"/>
+        <v>-1.25561375</v>
+      </c>
+      <c r="AW38" s="6">
+        <f t="shared" si="62"/>
+        <v>2.5407700000000002</v>
+      </c>
+      <c r="AX38" s="6">
+        <f t="shared" si="63"/>
+        <v>2.41683</v>
+      </c>
+      <c r="AY38" s="6">
+        <f t="shared" si="64"/>
+        <v>28.703023999999999</v>
+      </c>
+      <c r="AZ38" s="6">
+        <f t="shared" si="65"/>
+        <v>22.552376000000002</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:52">
       <c r="B39">
         <v>1</v>
       </c>
@@ -16765,13 +20718,23 @@
       <c r="T39">
         <v>-1.6433</v>
       </c>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
+      <c r="AA39">
+        <f t="shared" si="13"/>
+        <v>162</v>
+      </c>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:52">
       <c r="B40">
         <v>2</v>
       </c>
@@ -16820,26 +20783,61 @@
       <c r="T40">
         <v>3.5421</v>
       </c>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12"/>
-      <c r="AE40" s="12"/>
+      <c r="AA40">
+        <f t="shared" si="13"/>
+        <v>167</v>
+      </c>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="38"/>
+      <c r="AE40" s="38"/>
+      <c r="AF40" s="33"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:52">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41">
         <v>991.63</v>
       </c>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
+      <c r="AA41">
+        <f t="shared" si="13"/>
+        <v>172</v>
+      </c>
+      <c r="AB41" s="25" t="str">
+        <f t="shared" ref="AB41" ca="1" si="84">INDIRECT(_xlfn.CONCAT("D",AA41))</f>
+        <v>bd038</v>
+      </c>
+      <c r="AC41" s="38">
+        <f t="shared" ref="AC41" ca="1" si="85">INDIRECT(_xlfn.CONCAT("D",AA41+1))</f>
+        <v>-1.2565</v>
+      </c>
+      <c r="AD41" s="38">
+        <f t="shared" ref="AD41" ca="1" si="86">INDIRECT(_xlfn.CONCAT("D",AA41+2))</f>
+        <v>2.4291</v>
+      </c>
+      <c r="AE41" s="38">
+        <f t="shared" ref="AE41" ca="1" si="87">INDIRECT(_xlfn.CONCAT("D",AA41+3))</f>
+        <v>25.584</v>
+      </c>
+      <c r="AF41" s="33">
+        <f t="shared" ca="1" si="2"/>
+        <v>-8.4199999999999997E-2</v>
+      </c>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:52">
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -16852,13 +20850,23 @@
       <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="12"/>
-      <c r="AD42" s="12"/>
-      <c r="AE42" s="12"/>
+      <c r="AA42">
+        <f t="shared" si="13"/>
+        <v>177</v>
+      </c>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="33"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:52">
       <c r="B43">
         <v>0</v>
       </c>
@@ -16871,13 +20879,23 @@
       <c r="E43">
         <v>-6.9199999999999998E-2</v>
       </c>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
+      <c r="AA43">
+        <f t="shared" si="13"/>
+        <v>182</v>
+      </c>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:52">
       <c r="B44">
         <v>1</v>
       </c>
@@ -16890,13 +20908,23 @@
       <c r="E44">
         <v>-2.2913999999999999</v>
       </c>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="AA44">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="33"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="33"/>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="33"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="33"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:52">
       <c r="B45">
         <v>2</v>
       </c>
@@ -16909,26 +20937,46 @@
       <c r="E45">
         <v>1.4536</v>
       </c>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
+      <c r="AA45">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="33"/>
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="33"/>
+      <c r="AL45" s="33"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:52">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46">
         <v>991.63</v>
       </c>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
-      <c r="AE46" s="12"/>
+      <c r="AA46">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="33"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="33"/>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="33"/>
+      <c r="AK46" s="33"/>
+      <c r="AL46" s="33"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:52">
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -16941,13 +20989,23 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
-      <c r="AE47" s="12"/>
+      <c r="AA47">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="38"/>
+      <c r="AD47" s="38"/>
+      <c r="AE47" s="38"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:52">
       <c r="B48">
         <v>0</v>
       </c>
@@ -16960,13 +21018,23 @@
       <c r="E48">
         <v>-7.1300000000000002E-2</v>
       </c>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
+      <c r="AA48">
+        <f t="shared" si="13"/>
+        <v>207</v>
+      </c>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="38"/>
+      <c r="AD48" s="38"/>
+      <c r="AE48" s="38"/>
+      <c r="AF48" s="33"/>
+      <c r="AG48" s="33"/>
+      <c r="AH48" s="33"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="33"/>
+      <c r="AK48" s="33"/>
+      <c r="AL48" s="33"/>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:38">
       <c r="B49">
         <v>1</v>
       </c>
@@ -16985,8 +21053,23 @@
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
       <c r="U49" s="12"/>
+      <c r="AA49">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="38"/>
+      <c r="AD49" s="38"/>
+      <c r="AE49" s="38"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="33"/>
+      <c r="AL49" s="33"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:38">
       <c r="B50">
         <v>2</v>
       </c>
@@ -17006,7 +21089,7 @@
       <c r="P50" s="12"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -17031,7 +21114,7 @@
       <c r="P51" s="12"/>
       <c r="U51" s="12"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:38">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -17071,7 +21154,7 @@
       <c r="P52" s="12"/>
       <c r="U52" s="12"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:38">
       <c r="B53">
         <v>0</v>
       </c>
@@ -17111,7 +21194,7 @@
       <c r="P53" s="12"/>
       <c r="U53" s="12"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:38">
       <c r="B54">
         <v>1</v>
       </c>
@@ -17151,7 +21234,7 @@
       <c r="P54" s="12"/>
       <c r="U54" s="12"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:38">
       <c r="B55">
         <v>2</v>
       </c>
@@ -17191,7 +21274,7 @@
       <c r="P55" s="12"/>
       <c r="U55" s="12"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:38">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -17207,7 +21290,7 @@
       <c r="P56" s="12"/>
       <c r="U56" s="12"/>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:38">
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -17235,7 +21318,7 @@
       <c r="P57" s="12"/>
       <c r="U57" s="12"/>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:38">
       <c r="B58">
         <v>0</v>
       </c>
@@ -17261,7 +21344,7 @@
         <v>-0.32300000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:38">
       <c r="B59">
         <v>1</v>
       </c>
@@ -17287,7 +21370,7 @@
         <v>-2.0030999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:38">
       <c r="B60">
         <v>2</v>
       </c>
@@ -17313,7 +21396,7 @@
         <v>2.6589999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -17321,7 +21404,7 @@
         <v>991.63</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:38">
       <c r="B62" t="s">
         <v>0</v>
       </c>
@@ -17335,7 +21418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:38">
       <c r="B63">
         <v>0</v>
       </c>
@@ -17349,7 +21432,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:38">
       <c r="B64">
         <v>1</v>
       </c>
@@ -17556,7 +21639,7 @@
       <c r="M77" t="s">
         <v>1</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O77" t="s">
@@ -18020,15 +22103,964 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="D108" s="15"/>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D108" s="15">
+        <v>-1.2566999999999999</v>
+      </c>
+      <c r="E108">
+        <v>-6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D109">
+        <v>2.4359000000000002</v>
+      </c>
+      <c r="E109">
+        <v>-1.7323999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D110">
+        <v>26.6173</v>
+      </c>
+      <c r="E110">
+        <v>3.8613</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D113" s="15">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="E113">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D114">
+        <v>2.4333999999999998</v>
+      </c>
+      <c r="E114">
+        <v>-1.8320000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D115">
+        <v>26.561800000000002</v>
+      </c>
+      <c r="E115">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D118">
+        <v>-1.2567999999999999</v>
+      </c>
+      <c r="E118">
+        <v>-5.5E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D119">
+        <v>2.4315000000000002</v>
+      </c>
+      <c r="E119">
+        <v>-1.9083000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D120">
+        <v>27.1432</v>
+      </c>
+      <c r="E120">
+        <v>5.9137000000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D123">
+        <v>-1.2565999999999999</v>
+      </c>
+      <c r="E123">
+        <v>-7.4700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D124">
+        <v>2.4355000000000002</v>
+      </c>
+      <c r="E124">
+        <v>-1.7454000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D125">
+        <v>25.814</v>
+      </c>
+      <c r="E125">
+        <v>0.7268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>991.63</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>991.63</v>
+      </c>
+      <c r="K126" t="s">
+        <v>8</v>
+      </c>
+      <c r="L126">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J127" t="s">
+        <v>3</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D128">
+        <v>-1.2551000000000001</v>
+      </c>
+      <c r="E128">
+        <v>-0.18970000000000001</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="I128">
+        <v>-1.2546999999999999</v>
+      </c>
+      <c r="J128">
+        <v>-0.2225</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="N128">
+        <v>-1.2546999999999999</v>
+      </c>
+      <c r="O128">
+        <v>-0.22559999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D129">
+        <v>2.4245000000000001</v>
+      </c>
+      <c r="E129">
+        <v>-2.1922999999999999</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="I129">
+        <v>2.4356</v>
+      </c>
+      <c r="J129">
+        <v>-1.7424999999999999</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="N129">
+        <v>2.4251</v>
+      </c>
+      <c r="O129">
+        <v>-2.1650999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D130">
+        <v>26.348600000000001</v>
+      </c>
+      <c r="E130">
+        <v>2.8132000000000001</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="I130">
+        <v>26.312000000000001</v>
+      </c>
+      <c r="J130">
+        <v>2.67</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="N130">
+        <v>26.9861</v>
+      </c>
+      <c r="O130">
+        <v>5.3003999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D133">
+        <v>-1.2558</v>
+      </c>
+      <c r="E133">
+        <v>-0.1399</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D134">
+        <v>2.4312</v>
+      </c>
+      <c r="E134">
+        <v>-1.9198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D135">
+        <v>26.6464</v>
+      </c>
+      <c r="E135">
+        <v>3.9748000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D138">
+        <v>-1.2566999999999999</v>
+      </c>
+      <c r="E138">
+        <v>-6.3399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D139">
+        <v>2.4260999999999999</v>
+      </c>
+      <c r="E139">
+        <v>-2.1265999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D140">
+        <v>26.664899999999999</v>
+      </c>
+      <c r="E140">
+        <v>4.0471000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D143">
+        <v>-1.2557</v>
+      </c>
+      <c r="E143">
+        <v>-0.14280000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D144">
+        <v>2.4285000000000001</v>
+      </c>
+      <c r="E144">
+        <v>-2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D145">
+        <v>25.909099999999999</v>
+      </c>
+      <c r="E145">
+        <v>1.0979000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D148">
+        <v>-1.2585</v>
+      </c>
+      <c r="E148">
+        <v>8.2400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D149">
+        <v>2.4424000000000001</v>
+      </c>
+      <c r="E149">
+        <v>-1.4681999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D150">
+        <v>26.2608</v>
+      </c>
+      <c r="E150">
+        <v>2.4702000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D153">
+        <v>-1.2551000000000001</v>
+      </c>
+      <c r="E153">
+        <v>-0.19009999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D154">
+        <v>2.4325000000000001</v>
+      </c>
+      <c r="E154">
+        <v>-1.8702000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D155">
+        <v>27.072800000000001</v>
+      </c>
+      <c r="E155">
+        <v>5.6390000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>991.63</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E157" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D158">
+        <v>-1.2545999999999999</v>
+      </c>
+      <c r="E158">
+        <v>-0.23150000000000001</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="I158">
+        <v>-1.2545999999999999</v>
+      </c>
+      <c r="J158">
+        <v>-0.22770000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D159">
+        <v>2.4340999999999999</v>
+      </c>
+      <c r="E159">
+        <v>-1.8029999999999999</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="I159">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="J159">
+        <v>-2.2130000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D160">
+        <v>26.152100000000001</v>
+      </c>
+      <c r="E160">
+        <v>2.0463</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="I160">
+        <v>26.393999999999998</v>
+      </c>
+      <c r="J160">
+        <v>2.9902000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171">
+        <v>991.63</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>-1.2575000000000001</v>
+      </c>
+      <c r="D173">
+        <v>-1.2565</v>
+      </c>
+      <c r="E173">
+        <v>-8.4199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>2.4788000000000001</v>
+      </c>
+      <c r="D174">
+        <v>2.4291</v>
+      </c>
+      <c r="E174">
+        <v>-2.0045999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>25.627700000000001</v>
+      </c>
+      <c r="D175">
+        <v>25.584</v>
+      </c>
+      <c r="E175">
+        <v>-0.17069999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AG5:AI5"/>
     <mergeCell ref="AJ5:AL5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AF7:AF27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notBetween">
+  <conditionalFormatting sqref="AF7:AF49">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-($AC$2)*100</formula>
       <formula>($AC$2)*100</formula>
     </cfRule>

--- a/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
+++ b/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" tabRatio="934" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="934" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Produção Dipolos Booster" sheetId="1" r:id="rId1"/>
@@ -37236,7 +37236,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
+++ b/model-09/measurement/magnetic/hallprobe/production/All_dipoles.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\LNLS\Grupos\IMA\Sirius\Projetos\SIRIUS-Magnets\Magnets-BO\bo-dipoles\model-09\measurement\magnetic\hallprobe\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\centaurus\Repositorio\LNLS\Grupos\IMA\Sirius\Projetos\SIRIUS-Magnets\Magnets-BO\bo-dipoles\model-09\measurement\magnetic\hallprobe\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="934" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="934" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produção Dipolos Booster" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -508,9 +508,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,25 +536,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -649,7 +642,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -711,7 +704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2376,7 +2369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -2443,7 +2436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -2484,7 +2477,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2498,7 +2491,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2560,7 +2553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4225,7 +4218,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -4292,7 +4285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -4334,7 +4327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4364,7 +4357,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4373,7 +4366,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4435,7 +4428,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6100,7 +6093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -6167,7 +6160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -6209,7 +6202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6239,7 +6232,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6248,7 +6241,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6310,7 +6303,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7975,7 +7968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -8042,7 +8035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -8084,7 +8077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8114,7 +8107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -8123,7 +8116,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8185,7 +8178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9850,7 +9843,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -9917,7 +9910,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -9958,7 +9951,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9972,7 +9965,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10034,7 +10027,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11699,7 +11692,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -11766,7 +11759,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -11807,7 +11800,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11821,7 +11814,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13274,7 +13267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318190080"/>
@@ -13335,7 +13328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1965956720"/>
@@ -13377,7 +13370,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13407,7 +13400,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13421,7 +13414,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14490,7 +14483,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318190080"/>
@@ -14549,7 +14542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1965956720"/>
@@ -14590,7 +14583,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14604,7 +14597,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15673,7 +15666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="318190080"/>
@@ -15734,7 +15727,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1965956720"/>
@@ -15775,7 +15768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15789,7 +15782,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15851,7 +15844,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17516,7 +17509,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -17583,7 +17576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -17624,7 +17617,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17638,7 +17631,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17700,7 +17693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -19365,7 +19358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -19432,7 +19425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -19473,7 +19466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -19487,7 +19480,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19549,7 +19542,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -21214,7 +21207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1892944816"/>
@@ -21281,7 +21274,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1957815264"/>
@@ -21322,7 +21315,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -27970,7 +27963,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -27982,7 +27975,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -27994,7 +27987,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="598" r:id="rId1"/>
@@ -28358,8 +28351,8 @@
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="7681"/>
-    <xdr:ext cx="9647903" cy="5999214"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9648902" cy="6017012"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -28392,7 +28385,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9647903" cy="6006895"/>
+    <xdr:ext cx="9648902" cy="6017012"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -28425,7 +28418,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9647903" cy="6006895"/>
+    <xdr:ext cx="9648902" cy="6017012"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -28877,7 +28870,7 @@
         <f ca="1">AVERAGE(AF7:AF39)</f>
         <v>-5.611818181818181E-2</v>
       </c>
-      <c r="AG3" s="43">
+      <c r="AG3" s="42">
         <f ca="1">AVERAGE(AC7:AC9,AC11:AC13,AK14,AC15:AC16,AC19:AC21,AK22,AC23:AC31,AC33:AC36,AC37,AC39:AC48,AK49,AC52,AC57)</f>
         <v>-1.2571924999999999</v>
       </c>
@@ -28949,7 +28942,7 @@
         <v>1.274389304465587E-3</v>
       </c>
       <c r="AD5" s="27">
-        <f t="shared" ref="AD5:AF5" ca="1" si="0">ABS((AD4/AD3))</f>
+        <f t="shared" ref="AD5:AE5" ca="1" si="0">ABS((AD4/AD3))</f>
         <v>2.7680142765738052E-3</v>
       </c>
       <c r="AE5" s="27">
@@ -28957,18 +28950,18 @@
         <v>1.5335485779838362E-2</v>
       </c>
       <c r="AF5" s="27"/>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="32" t="s">
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="32"/>
-      <c r="AM5" s="32"/>
-      <c r="AN5" s="35"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="34"/>
       <c r="AQ5" s="25" t="s">
         <v>40</v>
       </c>
@@ -29001,25 +28994,25 @@
       <c r="AF6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AG6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AH6" s="33" t="s">
+      <c r="AH6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="33" t="s">
+      <c r="AI6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AK6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AL6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="33" t="s">
+      <c r="AM6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="AN6" s="4" t="s">
@@ -29063,7 +29056,7 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="42">
+      <c r="Z7" s="41">
         <f ca="1">($AG$3/AC7)-1</f>
         <v>1.5314240254582501E-4</v>
       </c>
@@ -29071,59 +29064,59 @@
         <v>2</v>
       </c>
       <c r="AB7" s="9" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA7))</f>
+        <f t="shared" ref="AB7:AB15" ca="1" si="1">INDIRECT(_xlfn.CONCAT("D",AA7))</f>
         <v>bd004</v>
       </c>
       <c r="AC7" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA7+1))</f>
+        <f t="shared" ref="AC7:AC15" ca="1" si="2">INDIRECT(_xlfn.CONCAT("D",AA7+1))</f>
         <v>-1.2569999999999999</v>
       </c>
       <c r="AD7" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA7+2))</f>
+        <f t="shared" ref="AD7:AD15" ca="1" si="3">INDIRECT(_xlfn.CONCAT("D",AA7+2))</f>
         <v>2.4262000000000001</v>
       </c>
       <c r="AE7" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA7+3))</f>
+        <f t="shared" ref="AE7:AE15" ca="1" si="4">INDIRECT(_xlfn.CONCAT("D",AA7+3))</f>
         <v>26.6981</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA7+1))</f>
         <v>-4.3900000000000002E-2</v>
       </c>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
       <c r="AR7">
         <f>SUM(AR1:AR6)</f>
         <v>54</v>
       </c>
       <c r="AW7" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" ref="AW7:AW28" si="5">$AC$1+$AC$1*$AC$2</f>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX7" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" ref="AX7:AX28" si="6">$AC$1-$AC$1*$AC$2</f>
         <v>-1.25561375</v>
       </c>
       <c r="AY7" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" ref="AY7:AY28" si="7">$AD$1+$AD$1*$AD$2</f>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ7" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" ref="AZ7:AZ28" si="8">$AD$1-$AD$1*$AD$2</f>
         <v>2.41683</v>
       </c>
       <c r="BA7" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" ref="BA7:BA28" si="9">$AE$1+$AE$1*$AE$2</f>
         <v>28.703023999999999</v>
       </c>
       <c r="BB7" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" ref="BB7:BB28" si="10">$AE$1-$AE$1*$AE$2</f>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29140,64 +29133,64 @@
       <c r="E8">
         <v>2.8E-3</v>
       </c>
-      <c r="Z8" s="42">
-        <f t="shared" ref="Z8:Z49" ca="1" si="1">($AG$3/AC8)-1</f>
+      <c r="Z8" s="41">
+        <f t="shared" ref="Z8:Z49" ca="1" si="11">($AG$3/AC8)-1</f>
         <v>-2.445328031810412E-4</v>
       </c>
       <c r="AA8">
-        <f t="shared" ref="AA8:AA16" si="2">AA7+5</f>
+        <f t="shared" ref="AA8:AA16" si="12">AA7+5</f>
         <v>7</v>
       </c>
       <c r="AB8" s="9" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA8))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>bd005</v>
       </c>
       <c r="AC8" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA8+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2575000000000001</v>
       </c>
       <c r="AD8" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA8+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4184999999999999</v>
       </c>
       <c r="AE8" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA8+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>25.741599999999998</v>
       </c>
-      <c r="AF8" s="34">
-        <f t="shared" ref="AF8:AF41" ca="1" si="3">INDIRECT(_xlfn.CONCAT("E",AA8+1))</f>
+      <c r="AF8" s="33">
+        <f t="shared" ref="AF8:AF41" ca="1" si="13">INDIRECT(_xlfn.CONCAT("E",AA8+1))</f>
         <v>2.8E-3</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="34"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
       <c r="AW8" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX8" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY8" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ8" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA8" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB8" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29214,88 +29207,88 @@
       <c r="E9">
         <v>-2.4312999999999998</v>
       </c>
-      <c r="Z9" s="42">
+      <c r="Z9" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-6.4189189189189921E-4</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AB9" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4189189189189921E-4</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="AB9" s="9" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA9))</f>
         <v>bd006</v>
       </c>
       <c r="AC9" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA9+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.258</v>
       </c>
       <c r="AD9" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA9+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4281000000000001</v>
       </c>
       <c r="AE9" s="10">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA9+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.648399999999999</v>
       </c>
-      <c r="AF9" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF9" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="AG9" s="34">
-        <f t="shared" ref="AG9:AG18" ca="1" si="4">INDIRECT(_xlfn.CONCAT("I",AA9+1))</f>
+      <c r="AG9" s="33">
+        <f t="shared" ref="AG9:AG18" ca="1" si="14">INDIRECT(_xlfn.CONCAT("I",AA9+1))</f>
         <v>-1.2573000000000001</v>
       </c>
-      <c r="AH9" s="34">
-        <f t="shared" ref="AH9:AH18" ca="1" si="5">INDIRECT(_xlfn.CONCAT("i",AA9+2))</f>
+      <c r="AH9" s="33">
+        <f t="shared" ref="AH9:AH18" ca="1" si="15">INDIRECT(_xlfn.CONCAT("i",AA9+2))</f>
         <v>2.4337</v>
       </c>
-      <c r="AI9" s="34">
-        <f t="shared" ref="AI9:AI18" ca="1" si="6">INDIRECT(_xlfn.CONCAT("I",AA9+3))</f>
+      <c r="AI9" s="33">
+        <f t="shared" ref="AI9:AI18" ca="1" si="16">INDIRECT(_xlfn.CONCAT("I",AA9+3))</f>
         <v>27.203099999999999</v>
       </c>
-      <c r="AJ9" s="34">
-        <f t="shared" ref="AJ8:AJ60" ca="1" si="7">INDIRECT(_xlfn.CONCAT("j",AA9+1))</f>
+      <c r="AJ9" s="33">
+        <f t="shared" ref="AJ9:AJ49" ca="1" si="17">INDIRECT(_xlfn.CONCAT("j",AA9+1))</f>
         <v>-1.3599999999999999E-2</v>
       </c>
-      <c r="AK9" s="34">
+      <c r="AK9" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA9+1))</f>
         <v>-1.2568999999999999</v>
       </c>
-      <c r="AL9" s="34">
+      <c r="AL9" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA9+2))</f>
         <v>2.4336000000000002</v>
       </c>
-      <c r="AM9" s="34">
+      <c r="AM9" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA9+3))</f>
         <v>26.619499999999999</v>
       </c>
-      <c r="AN9" s="34">
+      <c r="AN9" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA9+1))</f>
         <v>-5.0500000000000003E-2</v>
       </c>
       <c r="AW9" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX9" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY9" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ9" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA9" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB9" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29312,88 +29305,88 @@
       <c r="E10">
         <v>0.4446</v>
       </c>
-      <c r="Z10" s="42">
+      <c r="Z10" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>2.2261639030611846E-3</v>
+      </c>
+      <c r="AA10" s="30">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="AB10" s="20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2261639030611846E-3</v>
-      </c>
-      <c r="AA10" s="30">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AB10" s="20" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA10))</f>
         <v>bd007</v>
       </c>
       <c r="AC10" s="21">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA10+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2544</v>
       </c>
       <c r="AD10" s="21">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA10+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4156</v>
       </c>
       <c r="AE10" s="21">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA10+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.420500000000001</v>
       </c>
-      <c r="AF10" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF10" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.24959999999999999</v>
       </c>
-      <c r="AG10" s="34">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AG10" s="33">
+        <f t="shared" ca="1" si="14"/>
         <v>-1.2544</v>
       </c>
-      <c r="AH10" s="34">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AH10" s="33">
+        <f t="shared" ca="1" si="15"/>
         <v>2.4411</v>
       </c>
-      <c r="AI10" s="34">
-        <f t="shared" ca="1" si="6"/>
+      <c r="AI10" s="33">
+        <f t="shared" ca="1" si="16"/>
         <v>27.071400000000001</v>
       </c>
-      <c r="AJ10" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ10" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.25059999999999999</v>
       </c>
-      <c r="AK10" s="34">
-        <f t="shared" ref="AK10:AK17" ca="1" si="8">INDIRECT(_xlfn.CONCAT("n",AA10+1))</f>
+      <c r="AK10" s="33">
+        <f t="shared" ref="AK10:AK17" ca="1" si="18">INDIRECT(_xlfn.CONCAT("n",AA10+1))</f>
         <v>-1.2551000000000001</v>
       </c>
-      <c r="AL10" s="34">
-        <f t="shared" ref="AL10:AL17" ca="1" si="9">INDIRECT(_xlfn.CONCAT("n",AA10+2))</f>
+      <c r="AL10" s="33">
+        <f t="shared" ref="AL10:AL17" ca="1" si="19">INDIRECT(_xlfn.CONCAT("n",AA10+2))</f>
         <v>2.4308999999999998</v>
       </c>
-      <c r="AM10" s="34">
-        <f t="shared" ref="AM10:AM17" ca="1" si="10">INDIRECT(_xlfn.CONCAT("n",AA10+3))</f>
+      <c r="AM10" s="33">
+        <f t="shared" ref="AM10:AM17" ca="1" si="20">INDIRECT(_xlfn.CONCAT("n",AA10+3))</f>
         <v>26.9358</v>
       </c>
-      <c r="AN10" s="34">
+      <c r="AN10" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA10+1))</f>
         <v>-0.18940000000000001</v>
       </c>
       <c r="AW10" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX10" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY10" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ10" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA10" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB10" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29428,64 +29421,64 @@
       <c r="V11">
         <v>991.63</v>
       </c>
-      <c r="Z11" s="42">
+      <c r="Z11" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.2770098506513783E-3</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="AB11" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2770098506513783E-3</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="AB11" s="16" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA11))</f>
         <v>bd008</v>
       </c>
       <c r="AC11" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA11+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2587999999999999</v>
       </c>
       <c r="AD11" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA11+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4310999999999998</v>
       </c>
       <c r="AE11" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA11+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.722899999999999</v>
       </c>
-      <c r="AF11" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF11" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>0.1046</v>
       </c>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="33"/>
+      <c r="AN11" s="33"/>
       <c r="AW11" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX11" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY11" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ11" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA11" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB11" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29550,64 +29543,64 @@
       <c r="Y12" t="s">
         <v>3</v>
       </c>
-      <c r="Z12" s="42">
+      <c r="Z12" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.7151042495618967E-4</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="AB12" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7151042495618967E-4</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="AB12" s="16" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA12))</f>
         <v>bd009</v>
       </c>
       <c r="AC12" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA12+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2565999999999999</v>
       </c>
       <c r="AD12" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA12+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4165999999999999</v>
       </c>
       <c r="AE12" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA12+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.910900000000002</v>
       </c>
-      <c r="AF12" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF12" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-7.0099999999999996E-2</v>
       </c>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
       <c r="AW12" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX12" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY12" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ12" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA12" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB12" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29672,64 +29665,64 @@
       <c r="Y13">
         <v>-5.6099999999999997E-2</v>
       </c>
-      <c r="Z13" s="42">
+      <c r="Z13" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.0389352403655794E-3</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="AB13" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.0389352403655794E-3</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="AB13" s="16" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA13))</f>
         <v>bd010</v>
       </c>
       <c r="AC13" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA13+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2585</v>
       </c>
       <c r="AD13" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA13+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4213</v>
       </c>
       <c r="AE13" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA13+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.671600000000002</v>
       </c>
-      <c r="AF13" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF13" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="34"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="34"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
       <c r="AW13" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX13" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY13" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ13" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA13" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB13" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29794,88 +29787,88 @@
       <c r="Y14">
         <v>-2.1335999999999999</v>
       </c>
-      <c r="Z14" s="42">
+      <c r="Z14" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-1.9905533063429015E-3</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="AB14" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9905533063429015E-3</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AB14" s="16" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA14))</f>
         <v>bd011</v>
       </c>
       <c r="AC14" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA14+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2597</v>
       </c>
       <c r="AD14" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA14+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4249000000000001</v>
       </c>
       <c r="AE14" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA14+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.555599999999998</v>
       </c>
-      <c r="AF14" s="34">
+      <c r="AF14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA14+1))</f>
         <v>0.17549999999999999</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA14+1))</f>
         <v>-1.2586999999999999</v>
       </c>
-      <c r="AH14" s="34">
+      <c r="AH14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA14+2))</f>
         <v>2.4318</v>
       </c>
-      <c r="AI14" s="34">
+      <c r="AI14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("n",AA14+3))</f>
         <v>26.8203</v>
       </c>
-      <c r="AJ14" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ14" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>0.18329999999999999</v>
       </c>
-      <c r="AK14" s="34">
+      <c r="AK14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("S",AA14+1))</f>
         <v>-1.2589999999999999</v>
       </c>
-      <c r="AL14" s="34">
+      <c r="AL14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("S",AA14+2))</f>
         <v>2.4380999999999999</v>
       </c>
-      <c r="AM14" s="34">
+      <c r="AM14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("S",AA14+3))</f>
         <v>26.535499999999999</v>
       </c>
-      <c r="AN14" s="34">
+      <c r="AN14" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA14+1))</f>
         <v>9.2200000000000004E-2</v>
       </c>
       <c r="AW14" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX14" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY14" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ14" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA14" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB14" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -29940,64 +29933,64 @@
       <c r="Y15">
         <v>4.4717000000000002</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="41">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.7151042495618967E-4</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="AB15" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7151042495618967E-4</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AB15" s="16" t="str">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA15))</f>
         <v>bd012</v>
       </c>
       <c r="AC15" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA15+1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>-1.2565999999999999</v>
       </c>
       <c r="AD15" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA15+2))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2.4220000000000002</v>
       </c>
       <c r="AE15" s="17">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("D",AA15+3))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>26.0002</v>
       </c>
-      <c r="AF15" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF15" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-6.9199999999999998E-2</v>
       </c>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="33"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
       <c r="AW15" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX15" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY15" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ15" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA15" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB15" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30025,64 +30018,64 @@
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
-      <c r="Z16" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z16" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>4.7151042495618967E-4</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="AB16" s="16" t="str">
-        <f t="shared" ref="AB16:AB17" ca="1" si="11">INDIRECT(_xlfn.CONCAT("D",AA16))</f>
+        <f t="shared" ref="AB16:AB17" ca="1" si="21">INDIRECT(_xlfn.CONCAT("D",AA16))</f>
         <v>bd013</v>
       </c>
       <c r="AC16" s="17">
-        <f t="shared" ref="AC16" ca="1" si="12">INDIRECT(_xlfn.CONCAT("D",AA16+1))</f>
+        <f t="shared" ref="AC16" ca="1" si="22">INDIRECT(_xlfn.CONCAT("D",AA16+1))</f>
         <v>-1.2565999999999999</v>
       </c>
       <c r="AD16" s="17">
-        <f t="shared" ref="AD16" ca="1" si="13">INDIRECT(_xlfn.CONCAT("D",AA16+2))</f>
+        <f t="shared" ref="AD16" ca="1" si="23">INDIRECT(_xlfn.CONCAT("D",AA16+2))</f>
         <v>2.4268999999999998</v>
       </c>
       <c r="AE16" s="17">
-        <f t="shared" ref="AE16" ca="1" si="14">INDIRECT(_xlfn.CONCAT("D",AA16+3))</f>
+        <f t="shared" ref="AE16" ca="1" si="24">INDIRECT(_xlfn.CONCAT("D",AA16+3))</f>
         <v>27.282499999999999</v>
       </c>
-      <c r="AF16" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF16" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-7.1300000000000002E-2</v>
       </c>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="34"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
       <c r="AW16" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX16" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY16" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ16" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA16" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB16" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30123,92 +30116,92 @@
       <c r="O17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="37"/>
-      <c r="Z17" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="36"/>
+      <c r="Z17" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>2.3859830967947193E-3</v>
       </c>
       <c r="AA17" s="31">
-        <f t="shared" ref="AA17:AA60" si="15">AA16+5</f>
+        <f t="shared" ref="AA17:AA60" si="25">AA16+5</f>
         <v>52</v>
       </c>
       <c r="AB17" s="16" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="21"/>
         <v>bd014</v>
       </c>
       <c r="AC17" s="17">
-        <f t="shared" ref="AC17" ca="1" si="16">INDIRECT(_xlfn.CONCAT("D",AA17+1))</f>
+        <f t="shared" ref="AC17" ca="1" si="26">INDIRECT(_xlfn.CONCAT("D",AA17+1))</f>
         <v>-1.2542</v>
       </c>
       <c r="AD17" s="17">
-        <f t="shared" ref="AD17" ca="1" si="17">INDIRECT(_xlfn.CONCAT("D",AA17+2))</f>
+        <f t="shared" ref="AD17" ca="1" si="27">INDIRECT(_xlfn.CONCAT("D",AA17+2))</f>
         <v>2.4220999999999999</v>
       </c>
       <c r="AE17" s="17">
-        <f t="shared" ref="AE17" ca="1" si="18">INDIRECT(_xlfn.CONCAT("D",AA17+3))</f>
+        <f t="shared" ref="AE17" ca="1" si="28">INDIRECT(_xlfn.CONCAT("D",AA17+3))</f>
         <v>26.881599999999999</v>
       </c>
-      <c r="AF17" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF17" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.26140000000000002</v>
       </c>
-      <c r="AG17" s="34">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AG17" s="33">
+        <f t="shared" ca="1" si="14"/>
         <v>-1.2539</v>
       </c>
-      <c r="AH17" s="34">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AH17" s="33">
+        <f t="shared" ca="1" si="15"/>
         <v>2.4258999999999999</v>
       </c>
-      <c r="AI17" s="34">
-        <f t="shared" ca="1" si="6"/>
+      <c r="AI17" s="33">
+        <f t="shared" ca="1" si="16"/>
         <v>26.957100000000001</v>
       </c>
-      <c r="AJ17" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ17" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.28349999999999997</v>
       </c>
-      <c r="AK17" s="34">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AK17" s="33">
+        <f t="shared" ca="1" si="18"/>
         <v>-1.2545999999999999</v>
       </c>
-      <c r="AL17" s="34">
-        <f t="shared" ca="1" si="9"/>
+      <c r="AL17" s="33">
+        <f t="shared" ca="1" si="19"/>
         <v>2.4260000000000002</v>
       </c>
-      <c r="AM17" s="34">
-        <f t="shared" ca="1" si="10"/>
+      <c r="AM17" s="33">
+        <f t="shared" ca="1" si="20"/>
         <v>26.468299999999999</v>
       </c>
-      <c r="AN17" s="34">
+      <c r="AN17" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA17+1))</f>
         <v>-0.2321</v>
       </c>
       <c r="AW17" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX17" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY17" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ17" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA17" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB17" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30249,80 +30242,80 @@
       <c r="O18">
         <v>-0.18940000000000001</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="Z18" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="Z18" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>2.9457518946947037E-3</v>
       </c>
       <c r="AA18" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
       <c r="AB18" s="18" t="str">
-        <f t="shared" ref="AB18:AB22" ca="1" si="19">INDIRECT(_xlfn.CONCAT("D",AA18))</f>
+        <f t="shared" ref="AB18:AB22" ca="1" si="29">INDIRECT(_xlfn.CONCAT("D",AA18))</f>
         <v>bd015</v>
       </c>
       <c r="AC18" s="19">
-        <f t="shared" ref="AC18" ca="1" si="20">INDIRECT(_xlfn.CONCAT("D",AA18+1))</f>
+        <f t="shared" ref="AC18" ca="1" si="30">INDIRECT(_xlfn.CONCAT("D",AA18+1))</f>
         <v>-1.2535000000000001</v>
       </c>
       <c r="AD18" s="19">
-        <f t="shared" ref="AD18" ca="1" si="21">INDIRECT(_xlfn.CONCAT("D",AA18+2))</f>
+        <f t="shared" ref="AD18" ca="1" si="31">INDIRECT(_xlfn.CONCAT("D",AA18+2))</f>
         <v>2.4289000000000001</v>
       </c>
       <c r="AE18" s="19">
-        <f t="shared" ref="AE18" ca="1" si="22">INDIRECT(_xlfn.CONCAT("D",AA18+3))</f>
+        <f t="shared" ref="AE18" ca="1" si="32">INDIRECT(_xlfn.CONCAT("D",AA18+3))</f>
         <v>27.087900000000001</v>
       </c>
-      <c r="AF18" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF18" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.32219999999999999</v>
       </c>
-      <c r="AG18" s="34">
-        <f t="shared" ca="1" si="4"/>
+      <c r="AG18" s="33">
+        <f t="shared" ca="1" si="14"/>
         <v>-1.2534000000000001</v>
       </c>
-      <c r="AH18" s="34">
-        <f t="shared" ca="1" si="5"/>
+      <c r="AH18" s="33">
+        <f t="shared" ca="1" si="15"/>
         <v>2.4291999999999998</v>
       </c>
-      <c r="AI18" s="34">
-        <f t="shared" ca="1" si="6"/>
+      <c r="AI18" s="33">
+        <f t="shared" ca="1" si="16"/>
         <v>26.309100000000001</v>
       </c>
-      <c r="AJ18" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ18" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.32300000000000001</v>
       </c>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="34"/>
-      <c r="AN18" s="34"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
       <c r="AW18" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX18" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY18" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ18" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA18" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB18" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30363,68 +30356,68 @@
       <c r="O19">
         <v>-1.9341999999999999</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="Z19" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="Z19" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-4.0351435159424742E-4</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>62</v>
       </c>
       <c r="AB19" s="18" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v>bd016</v>
       </c>
       <c r="AC19" s="19">
-        <f t="shared" ref="AC19" ca="1" si="23">INDIRECT(_xlfn.CONCAT("D",AA19+1))</f>
+        <f t="shared" ref="AC19" ca="1" si="33">INDIRECT(_xlfn.CONCAT("D",AA19+1))</f>
         <v>-1.2577</v>
       </c>
       <c r="AD19" s="19">
-        <f t="shared" ref="AD19" ca="1" si="24">INDIRECT(_xlfn.CONCAT("D",AA19+2))</f>
+        <f t="shared" ref="AD19" ca="1" si="34">INDIRECT(_xlfn.CONCAT("D",AA19+2))</f>
         <v>2.4359999999999999</v>
       </c>
       <c r="AE19" s="19">
-        <f t="shared" ref="AE19" ca="1" si="25">INDIRECT(_xlfn.CONCAT("D",AA19+3))</f>
+        <f t="shared" ref="AE19" ca="1" si="35">INDIRECT(_xlfn.CONCAT("D",AA19+3))</f>
         <v>26.557500000000001</v>
       </c>
-      <c r="AF19" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF19" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>1.4E-2</v>
       </c>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="33"/>
+      <c r="AN19" s="33"/>
       <c r="AW19" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX19" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY19" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ19" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA19" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB19" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30465,68 +30458,68 @@
       <c r="O20">
         <v>5.1040999999999999</v>
       </c>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="Z20" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="Z20" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>7.358205393348527E-5</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="AB20" s="18" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v>bd017</v>
       </c>
       <c r="AC20" s="19">
-        <f t="shared" ref="AC20" ca="1" si="26">INDIRECT(_xlfn.CONCAT("D",AA20+1))</f>
+        <f t="shared" ref="AC20" ca="1" si="36">INDIRECT(_xlfn.CONCAT("D",AA20+1))</f>
         <v>-1.2571000000000001</v>
       </c>
       <c r="AD20" s="19">
-        <f t="shared" ref="AD20" ca="1" si="27">INDIRECT(_xlfn.CONCAT("D",AA20+2))</f>
+        <f t="shared" ref="AD20" ca="1" si="37">INDIRECT(_xlfn.CONCAT("D",AA20+2))</f>
         <v>2.427</v>
       </c>
       <c r="AE20" s="19">
-        <f t="shared" ref="AE20" ca="1" si="28">INDIRECT(_xlfn.CONCAT("D",AA20+3))</f>
+        <f t="shared" ref="AE20" ca="1" si="38">INDIRECT(_xlfn.CONCAT("D",AA20+3))</f>
         <v>26.644100000000002</v>
       </c>
-      <c r="AF20" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF20" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="34"/>
-      <c r="AN20" s="34"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
       <c r="AW20" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX20" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY20" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ20" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA20" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB20" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30537,64 +30530,64 @@
       <c r="B21">
         <v>991.63</v>
       </c>
-      <c r="Z21" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z21" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.1885800748585584E-3</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="AB21" s="18" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v>bd018</v>
       </c>
       <c r="AC21" s="19">
-        <f t="shared" ref="AC21" ca="1" si="29">INDIRECT(_xlfn.CONCAT("D",AA21+1))</f>
+        <f t="shared" ref="AC21" ca="1" si="39">INDIRECT(_xlfn.CONCAT("D",AA21+1))</f>
         <v>-1.2557</v>
       </c>
       <c r="AD21" s="19">
-        <f t="shared" ref="AD21" ca="1" si="30">INDIRECT(_xlfn.CONCAT("D",AA21+2))</f>
+        <f t="shared" ref="AD21" ca="1" si="40">INDIRECT(_xlfn.CONCAT("D",AA21+2))</f>
         <v>2.4302000000000001</v>
       </c>
       <c r="AE21" s="19">
-        <f t="shared" ref="AE21" ca="1" si="31">INDIRECT(_xlfn.CONCAT("D",AA21+3))</f>
+        <f t="shared" ref="AE21" ca="1" si="41">INDIRECT(_xlfn.CONCAT("D",AA21+3))</f>
         <v>26.831299999999999</v>
       </c>
-      <c r="AF21" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF21" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.14729999999999999</v>
       </c>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="33"/>
+      <c r="AM21" s="33"/>
+      <c r="AN21" s="33"/>
       <c r="AW21" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX21" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY21" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ21" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA21" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB21" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30611,88 +30604,88 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="Z22" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z22" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-2.3865259482622747E-3</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="AB22" s="18" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="29"/>
         <v>bd019</v>
       </c>
       <c r="AC22" s="19">
-        <f t="shared" ref="AC22" ca="1" si="32">INDIRECT(_xlfn.CONCAT("D",AA22+1))</f>
+        <f t="shared" ref="AC22" ca="1" si="42">INDIRECT(_xlfn.CONCAT("D",AA22+1))</f>
         <v>-1.2602</v>
       </c>
       <c r="AD22" s="19">
-        <f t="shared" ref="AD22" ca="1" si="33">INDIRECT(_xlfn.CONCAT("D",AA22+2))</f>
+        <f t="shared" ref="AD22" ca="1" si="43">INDIRECT(_xlfn.CONCAT("D",AA22+2))</f>
         <v>2.4243999999999999</v>
       </c>
       <c r="AE22" s="19">
-        <f t="shared" ref="AE22" ca="1" si="34">INDIRECT(_xlfn.CONCAT("D",AA22+3))</f>
+        <f t="shared" ref="AE22" ca="1" si="44">INDIRECT(_xlfn.CONCAT("D",AA22+3))</f>
         <v>26.3308</v>
       </c>
-      <c r="AF22" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF22" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>0.21229999999999999</v>
       </c>
-      <c r="AG22" s="34">
-        <f t="shared" ref="AG22" ca="1" si="35">INDIRECT(_xlfn.CONCAT("I",AA22+1))</f>
+      <c r="AG22" s="33">
+        <f t="shared" ref="AG22" ca="1" si="45">INDIRECT(_xlfn.CONCAT("I",AA22+1))</f>
         <v>-1.2591000000000001</v>
       </c>
-      <c r="AH22" s="34">
-        <f t="shared" ref="AH22" ca="1" si="36">INDIRECT(_xlfn.CONCAT("i",AA22+2))</f>
+      <c r="AH22" s="33">
+        <f t="shared" ref="AH22" ca="1" si="46">INDIRECT(_xlfn.CONCAT("i",AA22+2))</f>
         <v>2.4363999999999999</v>
       </c>
-      <c r="AI22" s="34">
-        <f t="shared" ref="AI22" ca="1" si="37">INDIRECT(_xlfn.CONCAT("I",AA22+3))</f>
+      <c r="AI22" s="33">
+        <f t="shared" ref="AI22" ca="1" si="47">INDIRECT(_xlfn.CONCAT("I",AA22+3))</f>
         <v>26.594899999999999</v>
       </c>
-      <c r="AJ22" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ22" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>0.1293</v>
       </c>
-      <c r="AK22" s="34">
-        <f t="shared" ref="AK22" ca="1" si="38">INDIRECT(_xlfn.CONCAT("n",AA22+1))</f>
+      <c r="AK22" s="33">
+        <f t="shared" ref="AK22" ca="1" si="48">INDIRECT(_xlfn.CONCAT("n",AA22+1))</f>
         <v>-1.2591000000000001</v>
       </c>
-      <c r="AL22" s="34">
-        <f t="shared" ref="AL22" ca="1" si="39">INDIRECT(_xlfn.CONCAT("n",AA22+2))</f>
+      <c r="AL22" s="33">
+        <f t="shared" ref="AL22" ca="1" si="49">INDIRECT(_xlfn.CONCAT("n",AA22+2))</f>
         <v>2.4430000000000001</v>
       </c>
-      <c r="AM22" s="34">
-        <f t="shared" ref="AM22" ca="1" si="40">INDIRECT(_xlfn.CONCAT("n",AA22+3))</f>
+      <c r="AM22" s="33">
+        <f t="shared" ref="AM22" ca="1" si="50">INDIRECT(_xlfn.CONCAT("n",AA22+3))</f>
         <v>26.4712</v>
       </c>
-      <c r="AN22" s="34">
+      <c r="AN22" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA22+1))</f>
         <v>0.12989999999999999</v>
       </c>
       <c r="AW22" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX22" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY22" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ22" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA22" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB22" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30709,64 +30702,64 @@
       <c r="E23">
         <v>0.1046</v>
       </c>
-      <c r="Z23" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z23" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-1.4356632247815027E-3</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
       <c r="AB23" s="18" t="str">
-        <f t="shared" ref="AB23" ca="1" si="41">INDIRECT(_xlfn.CONCAT("D",AA23))</f>
+        <f t="shared" ref="AB23" ca="1" si="51">INDIRECT(_xlfn.CONCAT("D",AA23))</f>
         <v>bd020</v>
       </c>
       <c r="AC23" s="19">
-        <f t="shared" ref="AC23" ca="1" si="42">INDIRECT(_xlfn.CONCAT("D",AA23+1))</f>
+        <f t="shared" ref="AC23" ca="1" si="52">INDIRECT(_xlfn.CONCAT("D",AA23+1))</f>
         <v>-1.2589999999999999</v>
       </c>
       <c r="AD23" s="19">
-        <f t="shared" ref="AD23" ca="1" si="43">INDIRECT(_xlfn.CONCAT("D",AA23+2))</f>
+        <f t="shared" ref="AD23" ca="1" si="53">INDIRECT(_xlfn.CONCAT("D",AA23+2))</f>
         <v>2.4428000000000001</v>
       </c>
       <c r="AE23" s="19">
-        <f t="shared" ref="AE23" ca="1" si="44">INDIRECT(_xlfn.CONCAT("D",AA23+3))</f>
+        <f t="shared" ref="AE23" ca="1" si="54">INDIRECT(_xlfn.CONCAT("D",AA23+3))</f>
         <v>26.0943</v>
       </c>
-      <c r="AF23" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF23" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>0.11990000000000001</v>
       </c>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="33"/>
+      <c r="AM23" s="33"/>
+      <c r="AN23" s="33"/>
       <c r="AW23" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX23" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY23" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ23" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA23" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB23" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30784,64 +30777,64 @@
         <v>-1.9255</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="Z24" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z24" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.0291424476469579E-3</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="AB24" s="18" t="str">
-        <f t="shared" ref="AB24:AB26" ca="1" si="45">INDIRECT(_xlfn.CONCAT("D",AA24))</f>
+        <f t="shared" ref="AB24:AB26" ca="1" si="55">INDIRECT(_xlfn.CONCAT("D",AA24))</f>
         <v>bd021</v>
       </c>
       <c r="AC24" s="19">
-        <f t="shared" ref="AC24" ca="1" si="46">INDIRECT(_xlfn.CONCAT("D",AA24+1))</f>
+        <f t="shared" ref="AC24" ca="1" si="56">INDIRECT(_xlfn.CONCAT("D",AA24+1))</f>
         <v>-1.2559</v>
       </c>
       <c r="AD24" s="19">
-        <f t="shared" ref="AD24" ca="1" si="47">INDIRECT(_xlfn.CONCAT("D",AA24+2))</f>
+        <f t="shared" ref="AD24" ca="1" si="57">INDIRECT(_xlfn.CONCAT("D",AA24+2))</f>
         <v>2.4321999999999999</v>
       </c>
       <c r="AE24" s="19">
-        <f t="shared" ref="AE24" ca="1" si="48">INDIRECT(_xlfn.CONCAT("D",AA24+3))</f>
+        <f t="shared" ref="AE24" ca="1" si="58">INDIRECT(_xlfn.CONCAT("D",AA24+3))</f>
         <v>26.8156</v>
       </c>
-      <c r="AF24" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF24" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.13039999999999999</v>
       </c>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
       <c r="AW24" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX24" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY24" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ24" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA24" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB24" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30858,64 +30851,64 @@
       <c r="E25">
         <v>4.2735000000000003</v>
       </c>
-      <c r="Z25" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z25" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>7.1041948579164682E-4</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="AB25" s="18" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v>bd022</v>
       </c>
       <c r="AC25" s="19">
-        <f t="shared" ref="AC25" ca="1" si="49">INDIRECT(_xlfn.CONCAT("D",AA25+1))</f>
+        <f t="shared" ref="AC25" ca="1" si="59">INDIRECT(_xlfn.CONCAT("D",AA25+1))</f>
         <v>-1.2563</v>
       </c>
       <c r="AD25" s="19">
-        <f t="shared" ref="AD25" ca="1" si="50">INDIRECT(_xlfn.CONCAT("D",AA25+2))</f>
+        <f t="shared" ref="AD25" ca="1" si="60">INDIRECT(_xlfn.CONCAT("D",AA25+2))</f>
         <v>2.4178000000000002</v>
       </c>
       <c r="AE25" s="19">
-        <f t="shared" ref="AE25" ca="1" si="51">INDIRECT(_xlfn.CONCAT("D",AA25+3))</f>
+        <f t="shared" ref="AE25" ca="1" si="61">INDIRECT(_xlfn.CONCAT("D",AA25+3))</f>
         <v>26.536300000000001</v>
       </c>
-      <c r="AF25" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF25" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.1</v>
       </c>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
       <c r="AW25" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX25" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY25" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ25" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA25" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB25" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -30926,64 +30919,64 @@
       <c r="B26">
         <v>991.63</v>
       </c>
-      <c r="Z26" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z26" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-4.8298616632225233E-4</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="AB26" s="18" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v>bd023</v>
       </c>
       <c r="AC26" s="19">
-        <f t="shared" ref="AC26" ca="1" si="52">INDIRECT(_xlfn.CONCAT("D",AA26+1))</f>
+        <f t="shared" ref="AC26" ca="1" si="62">INDIRECT(_xlfn.CONCAT("D",AA26+1))</f>
         <v>-1.2578</v>
       </c>
       <c r="AD26" s="19">
-        <f t="shared" ref="AD26" ca="1" si="53">INDIRECT(_xlfn.CONCAT("D",AA26+2))</f>
+        <f t="shared" ref="AD26" ca="1" si="63">INDIRECT(_xlfn.CONCAT("D",AA26+2))</f>
         <v>2.4222999999999999</v>
       </c>
       <c r="AE26" s="19">
-        <f t="shared" ref="AE26" ca="1" si="54">INDIRECT(_xlfn.CONCAT("D",AA26+3))</f>
+        <f t="shared" ref="AE26" ca="1" si="64">INDIRECT(_xlfn.CONCAT("D",AA26+3))</f>
         <v>27.414100000000001</v>
       </c>
-      <c r="AF26" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF26" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>2.24E-2</v>
       </c>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
       <c r="AW26" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX26" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY26" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ26" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA26" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB26" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31001,12 +30994,12 @@
         <v>3</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="Z27" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z27" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-1.118306054346152E-3</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>102</v>
       </c>
       <c r="AB27" s="18" t="str">
@@ -31014,51 +31007,51 @@
         <v>bd024</v>
       </c>
       <c r="AC27" s="19">
-        <f t="shared" ref="AC27:AC28" ca="1" si="55">INDIRECT(_xlfn.CONCAT("D",AA27+1))</f>
+        <f t="shared" ref="AC27:AC28" ca="1" si="65">INDIRECT(_xlfn.CONCAT("D",AA27+1))</f>
         <v>-1.2585999999999999</v>
       </c>
       <c r="AD27" s="19">
-        <f t="shared" ref="AD27:AD28" ca="1" si="56">INDIRECT(_xlfn.CONCAT("D",AA27+2))</f>
+        <f t="shared" ref="AD27:AD28" ca="1" si="66">INDIRECT(_xlfn.CONCAT("D",AA27+2))</f>
         <v>2.4277000000000002</v>
       </c>
       <c r="AE27" s="19">
-        <f t="shared" ref="AE27:AE28" ca="1" si="57">INDIRECT(_xlfn.CONCAT("D",AA27+3))</f>
+        <f t="shared" ref="AE27:AE28" ca="1" si="67">INDIRECT(_xlfn.CONCAT("D",AA27+3))</f>
         <v>26.977499999999999</v>
       </c>
-      <c r="AF27" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF27" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
       <c r="AW27" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX27" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY27" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ27" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA27" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB27" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31075,64 +31068,64 @@
       <c r="E28">
         <v>-7.0099999999999996E-2</v>
       </c>
-      <c r="Z28" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z28" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>3.9189941911366155E-4</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>107</v>
       </c>
-      <c r="AB28" s="39" t="str">
-        <f t="shared" ref="AB28:AB39" ca="1" si="58">INDIRECT(_xlfn.CONCAT("D",AA28))</f>
+      <c r="AB28" s="38" t="str">
+        <f t="shared" ref="AB28:AB38" ca="1" si="68">INDIRECT(_xlfn.CONCAT("D",AA28))</f>
         <v>bd025</v>
       </c>
-      <c r="AC28" s="40">
-        <f t="shared" ca="1" si="55"/>
+      <c r="AC28" s="39">
+        <f t="shared" ca="1" si="65"/>
         <v>-1.2566999999999999</v>
       </c>
-      <c r="AD28" s="40">
-        <f t="shared" ca="1" si="56"/>
+      <c r="AD28" s="39">
+        <f t="shared" ca="1" si="66"/>
         <v>2.4359000000000002</v>
       </c>
-      <c r="AE28" s="40">
-        <f t="shared" ca="1" si="57"/>
+      <c r="AE28" s="39">
+        <f t="shared" ca="1" si="67"/>
         <v>26.6173</v>
       </c>
-      <c r="AF28" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF28" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-6.2399999999999997E-2</v>
       </c>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
       <c r="AW28" s="5">
-        <f>$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" si="5"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX28" s="5">
-        <f>$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" si="6"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY28" s="5">
-        <f>$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" si="7"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ28" s="5">
-        <f>$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" si="8"/>
         <v>2.41683</v>
       </c>
       <c r="BA28" s="5">
-        <f>$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" si="9"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB28" s="5">
-        <f>$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" si="10"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31149,64 +31142,64 @@
       <c r="E29">
         <v>-2.5105</v>
       </c>
-      <c r="Z29" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z29" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-2.445328031810412E-4</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>112</v>
       </c>
-      <c r="AB29" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB29" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd026</v>
       </c>
-      <c r="AC29" s="40">
-        <f t="shared" ref="AC29:AC37" ca="1" si="59">INDIRECT(_xlfn.CONCAT("D",AA29+1))</f>
+      <c r="AC29" s="39">
+        <f t="shared" ref="AC29:AC37" ca="1" si="69">INDIRECT(_xlfn.CONCAT("D",AA29+1))</f>
         <v>-1.2575000000000001</v>
       </c>
-      <c r="AD29" s="40">
-        <f t="shared" ref="AD29:AD37" ca="1" si="60">INDIRECT(_xlfn.CONCAT("D",AA29+2))</f>
+      <c r="AD29" s="39">
+        <f t="shared" ref="AD29:AD37" ca="1" si="70">INDIRECT(_xlfn.CONCAT("D",AA29+2))</f>
         <v>2.4333999999999998</v>
       </c>
-      <c r="AE29" s="40">
-        <f t="shared" ref="AE29:AE37" ca="1" si="61">INDIRECT(_xlfn.CONCAT("D",AA29+3))</f>
+      <c r="AE29" s="39">
+        <f t="shared" ref="AE29:AE37" ca="1" si="71">INDIRECT(_xlfn.CONCAT("D",AA29+3))</f>
         <v>26.561800000000002</v>
       </c>
-      <c r="AF29" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF29" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
       <c r="AW29" s="5">
-        <f t="shared" ref="AW29:AW60" si="62">$AC$1+$AC$1*$AC$2</f>
+        <f t="shared" ref="AW29:AW60" si="72">$AC$1+$AC$1*$AC$2</f>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX29" s="5">
-        <f t="shared" ref="AX29:AX60" si="63">$AC$1-$AC$1*$AC$2</f>
+        <f t="shared" ref="AX29:AX60" si="73">$AC$1-$AC$1*$AC$2</f>
         <v>-1.25561375</v>
       </c>
       <c r="AY29" s="5">
-        <f t="shared" ref="AY29:AY60" si="64">$AD$1+$AD$1*$AD$2</f>
+        <f t="shared" ref="AY29:AY60" si="74">$AD$1+$AD$1*$AD$2</f>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ29" s="5">
-        <f t="shared" ref="AZ29:AZ60" si="65">$AD$1-$AD$1*$AD$2</f>
+        <f t="shared" ref="AZ29:AZ60" si="75">$AD$1-$AD$1*$AD$2</f>
         <v>2.41683</v>
       </c>
       <c r="BA29" s="5">
-        <f t="shared" ref="BA29:BA60" si="66">$AE$1+$AE$1*$AE$2</f>
+        <f t="shared" ref="BA29:BA60" si="76">$AE$1+$AE$1*$AE$2</f>
         <v>28.703023999999999</v>
       </c>
       <c r="BB29" s="5">
-        <f t="shared" ref="BB29:BB60" si="67">$AE$1-$AE$1*$AE$2</f>
+        <f t="shared" ref="BB29:BB60" si="77">$AE$1-$AE$1*$AE$2</f>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31223,64 +31216,64 @@
       <c r="E30">
         <v>5.0068999999999999</v>
       </c>
-      <c r="Z30" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z30" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>3.1230108211333096E-4</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>117</v>
       </c>
-      <c r="AB30" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB30" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd027</v>
       </c>
-      <c r="AC30" s="40">
-        <f t="shared" ref="AC30" ca="1" si="68">INDIRECT(_xlfn.CONCAT("D",AA30+1))</f>
+      <c r="AC30" s="39">
+        <f t="shared" ref="AC30" ca="1" si="78">INDIRECT(_xlfn.CONCAT("D",AA30+1))</f>
         <v>-1.2567999999999999</v>
       </c>
-      <c r="AD30" s="40">
-        <f t="shared" ref="AD30" ca="1" si="69">INDIRECT(_xlfn.CONCAT("D",AA30+2))</f>
+      <c r="AD30" s="39">
+        <f t="shared" ref="AD30" ca="1" si="79">INDIRECT(_xlfn.CONCAT("D",AA30+2))</f>
         <v>2.4315000000000002</v>
       </c>
-      <c r="AE30" s="40">
-        <f t="shared" ref="AE30" ca="1" si="70">INDIRECT(_xlfn.CONCAT("D",AA30+3))</f>
+      <c r="AE30" s="39">
+        <f t="shared" ref="AE30" ca="1" si="80">INDIRECT(_xlfn.CONCAT("D",AA30+3))</f>
         <v>27.1432</v>
       </c>
-      <c r="AF30" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF30" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-5.5E-2</v>
       </c>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="34"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="33"/>
+      <c r="AK30" s="33"/>
+      <c r="AL30" s="33"/>
+      <c r="AM30" s="33"/>
+      <c r="AN30" s="33"/>
       <c r="AW30" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX30" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY30" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ30" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA30" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB30" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31291,64 +31284,64 @@
       <c r="B31">
         <v>991.63</v>
       </c>
-      <c r="Z31" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z31" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>4.7151042495618967E-4</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>122</v>
       </c>
-      <c r="AB31" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB31" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd028</v>
       </c>
-      <c r="AC31" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC31" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2565999999999999</v>
       </c>
-      <c r="AD31" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD31" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4355000000000002</v>
       </c>
-      <c r="AE31" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE31" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>25.814</v>
       </c>
-      <c r="AF31" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF31" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-7.4700000000000003E-2</v>
       </c>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
       <c r="AW31" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX31" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY31" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ31" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA31" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB31" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31365,88 +31358,88 @@
       <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="Z32" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z32" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.6671978328419712E-3</v>
       </c>
       <c r="AA32" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>127</v>
       </c>
-      <c r="AB32" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB32" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd029</v>
       </c>
-      <c r="AC32" s="40">
-        <f t="shared" ref="AC32" ca="1" si="71">INDIRECT(_xlfn.CONCAT("D",AA32+1))</f>
+      <c r="AC32" s="39">
+        <f t="shared" ref="AC32" ca="1" si="81">INDIRECT(_xlfn.CONCAT("D",AA32+1))</f>
         <v>-1.2551000000000001</v>
       </c>
-      <c r="AD32" s="40">
-        <f t="shared" ref="AD32" ca="1" si="72">INDIRECT(_xlfn.CONCAT("D",AA32+2))</f>
+      <c r="AD32" s="39">
+        <f t="shared" ref="AD32" ca="1" si="82">INDIRECT(_xlfn.CONCAT("D",AA32+2))</f>
         <v>2.4245000000000001</v>
       </c>
-      <c r="AE32" s="40">
-        <f t="shared" ref="AE32" ca="1" si="73">INDIRECT(_xlfn.CONCAT("D",AA32+3))</f>
+      <c r="AE32" s="39">
+        <f t="shared" ref="AE32" ca="1" si="83">INDIRECT(_xlfn.CONCAT("D",AA32+3))</f>
         <v>26.348600000000001</v>
       </c>
-      <c r="AF32" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF32" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.18970000000000001</v>
       </c>
-      <c r="AG32" s="34">
-        <f t="shared" ref="AG32" ca="1" si="74">INDIRECT(_xlfn.CONCAT("I",AA32+1))</f>
+      <c r="AG32" s="33">
+        <f t="shared" ref="AG32" ca="1" si="84">INDIRECT(_xlfn.CONCAT("I",AA32+1))</f>
         <v>-1.2546999999999999</v>
       </c>
-      <c r="AH32" s="34">
-        <f t="shared" ref="AH32" ca="1" si="75">INDIRECT(_xlfn.CONCAT("i",AA32+2))</f>
+      <c r="AH32" s="33">
+        <f t="shared" ref="AH32" ca="1" si="85">INDIRECT(_xlfn.CONCAT("i",AA32+2))</f>
         <v>2.4356</v>
       </c>
-      <c r="AI32" s="34">
-        <f t="shared" ref="AI32" ca="1" si="76">INDIRECT(_xlfn.CONCAT("I",AA32+3))</f>
+      <c r="AI32" s="33">
+        <f t="shared" ref="AI32" ca="1" si="86">INDIRECT(_xlfn.CONCAT("I",AA32+3))</f>
         <v>26.312000000000001</v>
       </c>
-      <c r="AJ32" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ32" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.2225</v>
       </c>
-      <c r="AK32" s="34">
-        <f t="shared" ref="AK32" ca="1" si="77">INDIRECT(_xlfn.CONCAT("n",AA32+1))</f>
+      <c r="AK32" s="33">
+        <f t="shared" ref="AK32" ca="1" si="87">INDIRECT(_xlfn.CONCAT("n",AA32+1))</f>
         <v>-1.2546999999999999</v>
       </c>
-      <c r="AL32" s="34">
-        <f t="shared" ref="AL32" ca="1" si="78">INDIRECT(_xlfn.CONCAT("n",AA32+2))</f>
+      <c r="AL32" s="33">
+        <f t="shared" ref="AL32" ca="1" si="88">INDIRECT(_xlfn.CONCAT("n",AA32+2))</f>
         <v>2.4251</v>
       </c>
-      <c r="AM32" s="34">
-        <f t="shared" ref="AM32" ca="1" si="79">INDIRECT(_xlfn.CONCAT("n",AA32+3))</f>
+      <c r="AM32" s="33">
+        <f t="shared" ref="AM32" ca="1" si="89">INDIRECT(_xlfn.CONCAT("n",AA32+3))</f>
         <v>26.9861</v>
       </c>
-      <c r="AN32" s="34">
+      <c r="AN32" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA32+1))</f>
         <v>-0.22559999999999999</v>
       </c>
       <c r="AW32" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX32" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY32" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ32" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA32" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB32" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31463,64 +31456,64 @@
       <c r="E33">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="Z33" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z33" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.1088549132025616E-3</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>132</v>
       </c>
-      <c r="AB33" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB33" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd030</v>
       </c>
-      <c r="AC33" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC33" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2558</v>
       </c>
-      <c r="AD33" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD33" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4312</v>
       </c>
-      <c r="AE33" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE33" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>26.6464</v>
       </c>
-      <c r="AF33" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF33" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.1399</v>
       </c>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-      <c r="AK33" s="34"/>
-      <c r="AL33" s="34"/>
-      <c r="AM33" s="34"/>
-      <c r="AN33" s="34"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
       <c r="AW33" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX33" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY33" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ33" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA33" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB33" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31537,64 +31530,64 @@
       <c r="E34">
         <v>-2.3195000000000001</v>
       </c>
-      <c r="Z34" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z34" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>3.9189941911366155E-4</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>137</v>
       </c>
-      <c r="AB34" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB34" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd031</v>
       </c>
-      <c r="AC34" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC34" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2566999999999999</v>
       </c>
-      <c r="AD34" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD34" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4260999999999999</v>
       </c>
-      <c r="AE34" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE34" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>26.664899999999999</v>
       </c>
-      <c r="AF34" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF34" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-6.3399999999999998E-2</v>
       </c>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="33"/>
       <c r="AW34" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX34" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY34" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ34" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA34" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB34" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31611,64 +31604,64 @@
       <c r="E35">
         <v>4.0734000000000004</v>
       </c>
-      <c r="Z35" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z35" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.1885800748585584E-3</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>142</v>
       </c>
-      <c r="AB35" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB35" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd032</v>
       </c>
-      <c r="AC35" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC35" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2557</v>
       </c>
-      <c r="AD35" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD35" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4285000000000001</v>
       </c>
-      <c r="AE35" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE35" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>25.909099999999999</v>
       </c>
-      <c r="AF35" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF35" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.14280000000000001</v>
       </c>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-      <c r="AK35" s="34"/>
-      <c r="AL35" s="34"/>
-      <c r="AM35" s="34"/>
-      <c r="AN35" s="34"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
       <c r="AW35" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX35" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY35" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ35" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA35" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB35" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31703,64 +31696,64 @@
       <c r="Q36">
         <v>991.63</v>
       </c>
-      <c r="Z36" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z36" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-1.0389352403655794E-3</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>147</v>
       </c>
-      <c r="AB36" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB36" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd033</v>
       </c>
-      <c r="AC36" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC36" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2585</v>
       </c>
-      <c r="AD36" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD36" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4424000000000001</v>
       </c>
-      <c r="AE36" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE36" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>26.2608</v>
       </c>
-      <c r="AF36" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF36" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-      <c r="AK36" s="34"/>
-      <c r="AL36" s="34"/>
-      <c r="AM36" s="34"/>
-      <c r="AN36" s="34"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
       <c r="AW36" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX36" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY36" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ36" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA36" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB36" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31813,64 +31806,64 @@
       <c r="T37" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z37" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.6671978328419712E-3</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>152</v>
       </c>
-      <c r="AB37" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB37" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd034</v>
       </c>
-      <c r="AC37" s="40">
-        <f t="shared" ca="1" si="59"/>
+      <c r="AC37" s="39">
+        <f t="shared" ca="1" si="69"/>
         <v>-1.2551000000000001</v>
       </c>
-      <c r="AD37" s="40">
-        <f t="shared" ca="1" si="60"/>
+      <c r="AD37" s="39">
+        <f t="shared" ca="1" si="70"/>
         <v>2.4325000000000001</v>
       </c>
-      <c r="AE37" s="40">
-        <f t="shared" ca="1" si="61"/>
+      <c r="AE37" s="39">
+        <f t="shared" ca="1" si="71"/>
         <v>27.072800000000001</v>
       </c>
-      <c r="AF37" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF37" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.19009999999999999</v>
       </c>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
       <c r="AW37" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY37" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ37" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA37" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB37" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -31923,76 +31916,76 @@
       <c r="T38">
         <v>0.1215</v>
       </c>
-      <c r="Z38" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z38" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>2.0663956639566106E-3</v>
       </c>
       <c r="AA38" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>157</v>
       </c>
-      <c r="AB38" s="39" t="str">
-        <f t="shared" ca="1" si="58"/>
+      <c r="AB38" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
         <v>bd035</v>
       </c>
-      <c r="AC38" s="40">
-        <f t="shared" ref="AC38:AC40" ca="1" si="80">INDIRECT(_xlfn.CONCAT("D",AA38+1))</f>
+      <c r="AC38" s="39">
+        <f t="shared" ref="AC38:AC40" ca="1" si="90">INDIRECT(_xlfn.CONCAT("D",AA38+1))</f>
         <v>-1.2545999999999999</v>
       </c>
-      <c r="AD38" s="40">
-        <f t="shared" ref="AD38:AD40" ca="1" si="81">INDIRECT(_xlfn.CONCAT("D",AA38+2))</f>
+      <c r="AD38" s="39">
+        <f t="shared" ref="AD38:AD40" ca="1" si="91">INDIRECT(_xlfn.CONCAT("D",AA38+2))</f>
         <v>2.4340999999999999</v>
       </c>
-      <c r="AE38" s="40">
-        <f t="shared" ref="AE38:AE40" ca="1" si="82">INDIRECT(_xlfn.CONCAT("D",AA38+3))</f>
+      <c r="AE38" s="39">
+        <f t="shared" ref="AE38:AE40" ca="1" si="92">INDIRECT(_xlfn.CONCAT("D",AA38+3))</f>
         <v>26.152100000000001</v>
       </c>
-      <c r="AF38" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF38" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-0.23150000000000001</v>
       </c>
-      <c r="AG38" s="34">
-        <f t="shared" ref="AG38" ca="1" si="83">INDIRECT(_xlfn.CONCAT("I",AA38+1))</f>
+      <c r="AG38" s="33">
+        <f t="shared" ref="AG38" ca="1" si="93">INDIRECT(_xlfn.CONCAT("I",AA38+1))</f>
         <v>-1.2545999999999999</v>
       </c>
-      <c r="AH38" s="34">
-        <f t="shared" ref="AH38" ca="1" si="84">INDIRECT(_xlfn.CONCAT("i",AA38+2))</f>
+      <c r="AH38" s="33">
+        <f t="shared" ref="AH38" ca="1" si="94">INDIRECT(_xlfn.CONCAT("i",AA38+2))</f>
         <v>2.4239999999999999</v>
       </c>
-      <c r="AI38" s="34">
-        <f t="shared" ref="AI38" ca="1" si="85">INDIRECT(_xlfn.CONCAT("I",AA38+3))</f>
+      <c r="AI38" s="33">
+        <f t="shared" ref="AI38" ca="1" si="95">INDIRECT(_xlfn.CONCAT("I",AA38+3))</f>
         <v>26.393999999999998</v>
       </c>
-      <c r="AJ38" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ38" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.22770000000000001</v>
       </c>
-      <c r="AK38" s="34"/>
-      <c r="AL38" s="34"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
+      <c r="AK38" s="33"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="33"/>
+      <c r="AN38" s="33"/>
       <c r="AW38" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX38" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY38" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ38" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA38" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32045,64 +32038,64 @@
       <c r="T39">
         <v>-1.6433</v>
       </c>
-      <c r="Z39" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z39" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.1885800748585584E-3</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>162</v>
       </c>
       <c r="AB39" s="25" t="str">
-        <f t="shared" ref="AB39:AB49" ca="1" si="86">INDIRECT(_xlfn.CONCAT("D",AA39))</f>
+        <f t="shared" ref="AB39:AB49" ca="1" si="96">INDIRECT(_xlfn.CONCAT("D",AA39))</f>
         <v>bd036</v>
       </c>
-      <c r="AC39" s="41">
-        <f t="shared" ca="1" si="80"/>
+      <c r="AC39" s="40">
+        <f t="shared" ca="1" si="90"/>
         <v>-1.2557</v>
       </c>
-      <c r="AD39" s="41">
-        <f t="shared" ca="1" si="81"/>
+      <c r="AD39" s="40">
+        <f t="shared" ca="1" si="91"/>
         <v>2.4230999999999998</v>
       </c>
-      <c r="AE39" s="41">
-        <f t="shared" ca="1" si="82"/>
+      <c r="AE39" s="40">
+        <f t="shared" ca="1" si="92"/>
         <v>26.800599999999999</v>
       </c>
-      <c r="AF39" s="34">
-        <f t="shared" ref="AF39:AF40" ca="1" si="87">INDIRECT(_xlfn.CONCAT("E",AA39+1))</f>
+      <c r="AF39" s="33">
+        <f t="shared" ref="AF39:AF40" ca="1" si="97">INDIRECT(_xlfn.CONCAT("E",AA39+1))</f>
         <v>-0.1464</v>
       </c>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
       <c r="AW39" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX39" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY39" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ39" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA39" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB39" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32155,64 +32148,64 @@
       <c r="T40">
         <v>3.5421</v>
       </c>
-      <c r="Z40" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z40" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-1.4356632247815027E-3</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>167</v>
       </c>
       <c r="AB40" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd037</v>
       </c>
-      <c r="AC40" s="41">
-        <f t="shared" ca="1" si="80"/>
+      <c r="AC40" s="40">
+        <f t="shared" ca="1" si="90"/>
         <v>-1.2589999999999999</v>
       </c>
-      <c r="AD40" s="41">
-        <f t="shared" ca="1" si="81"/>
+      <c r="AD40" s="40">
+        <f t="shared" ca="1" si="91"/>
         <v>2.4289999999999998</v>
       </c>
-      <c r="AE40" s="41">
-        <f t="shared" ca="1" si="82"/>
+      <c r="AE40" s="40">
+        <f t="shared" ca="1" si="92"/>
         <v>27.121300000000002</v>
       </c>
-      <c r="AF40" s="34">
-        <f t="shared" ca="1" si="87"/>
+      <c r="AF40" s="33">
+        <f t="shared" ca="1" si="97"/>
         <v>0.1172</v>
       </c>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-      <c r="AK40" s="34"/>
-      <c r="AL40" s="34"/>
-      <c r="AM40" s="34"/>
-      <c r="AN40" s="34"/>
+      <c r="AG40" s="33"/>
+      <c r="AH40" s="33"/>
+      <c r="AI40" s="33"/>
+      <c r="AJ40" s="33"/>
+      <c r="AK40" s="33"/>
+      <c r="AL40" s="33"/>
+      <c r="AM40" s="33"/>
+      <c r="AN40" s="33"/>
       <c r="AW40" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX40" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY40" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ40" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA40" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB40" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32223,64 +32216,64 @@
       <c r="B41">
         <v>991.63</v>
       </c>
-      <c r="Z41" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z41" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>5.5113410266605101E-4</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>172</v>
       </c>
       <c r="AB41" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd038</v>
       </c>
-      <c r="AC41" s="41">
-        <f t="shared" ref="AC41" ca="1" si="88">INDIRECT(_xlfn.CONCAT("D",AA41+1))</f>
+      <c r="AC41" s="40">
+        <f t="shared" ref="AC41" ca="1" si="98">INDIRECT(_xlfn.CONCAT("D",AA41+1))</f>
         <v>-1.2565</v>
       </c>
-      <c r="AD41" s="41">
-        <f t="shared" ref="AD41" ca="1" si="89">INDIRECT(_xlfn.CONCAT("D",AA41+2))</f>
+      <c r="AD41" s="40">
+        <f t="shared" ref="AD41" ca="1" si="99">INDIRECT(_xlfn.CONCAT("D",AA41+2))</f>
         <v>2.4291</v>
       </c>
-      <c r="AE41" s="41">
-        <f t="shared" ref="AE41" ca="1" si="90">INDIRECT(_xlfn.CONCAT("D",AA41+3))</f>
+      <c r="AE41" s="40">
+        <f t="shared" ref="AE41" ca="1" si="100">INDIRECT(_xlfn.CONCAT("D",AA41+3))</f>
         <v>25.584</v>
       </c>
-      <c r="AF41" s="34">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AF41" s="33">
+        <f t="shared" ca="1" si="13"/>
         <v>-8.4199999999999997E-2</v>
       </c>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="34"/>
-      <c r="AN41" s="34"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="33"/>
       <c r="AW41" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX41" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY41" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ41" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA41" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB41" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32297,64 +32290,64 @@
       <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="Z42" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z42" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>2.3271541093161652E-4</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>177</v>
       </c>
       <c r="AB42" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd039</v>
       </c>
-      <c r="AC42" s="41">
-        <f t="shared" ref="AC42:AC43" ca="1" si="91">INDIRECT(_xlfn.CONCAT("D",AA42+1))</f>
+      <c r="AC42" s="40">
+        <f t="shared" ref="AC42:AC43" ca="1" si="101">INDIRECT(_xlfn.CONCAT("D",AA42+1))</f>
         <v>-1.2568999999999999</v>
       </c>
-      <c r="AD42" s="41">
-        <f t="shared" ref="AD42:AD43" ca="1" si="92">INDIRECT(_xlfn.CONCAT("D",AA42+2))</f>
+      <c r="AD42" s="40">
+        <f t="shared" ref="AD42:AD43" ca="1" si="102">INDIRECT(_xlfn.CONCAT("D",AA42+2))</f>
         <v>2.4287000000000001</v>
       </c>
-      <c r="AE42" s="41">
-        <f t="shared" ref="AE42:AE43" ca="1" si="93">INDIRECT(_xlfn.CONCAT("D",AA42+3))</f>
+      <c r="AE42" s="40">
+        <f t="shared" ref="AE42:AE43" ca="1" si="103">INDIRECT(_xlfn.CONCAT("D",AA42+3))</f>
         <v>28.245999999999999</v>
       </c>
-      <c r="AF42" s="34">
-        <f t="shared" ref="AF42:AF47" ca="1" si="94">INDIRECT(_xlfn.CONCAT("E",AA42+1))</f>
+      <c r="AF42" s="33">
+        <f t="shared" ref="AF42:AF47" ca="1" si="104">INDIRECT(_xlfn.CONCAT("E",AA42+1))</f>
         <v>-4.8599999999999997E-2</v>
       </c>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="34"/>
-      <c r="AM42" s="34"/>
-      <c r="AN42" s="34"/>
+      <c r="AG42" s="33"/>
+      <c r="AH42" s="33"/>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="33"/>
+      <c r="AN42" s="33"/>
       <c r="AW42" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX42" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY42" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ42" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA42" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB42" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32371,64 +32364,64 @@
       <c r="E43">
         <v>-6.9199999999999998E-2</v>
       </c>
-      <c r="Z43" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z43" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-8.0074709903044106E-4</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>182</v>
       </c>
       <c r="AB43" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd040</v>
       </c>
-      <c r="AC43" s="41">
-        <f t="shared" ca="1" si="91"/>
+      <c r="AC43" s="40">
+        <f t="shared" ca="1" si="101"/>
         <v>-1.2582</v>
       </c>
-      <c r="AD43" s="41">
-        <f t="shared" ca="1" si="92"/>
+      <c r="AD43" s="40">
+        <f t="shared" ca="1" si="102"/>
         <v>2.4306999999999999</v>
       </c>
-      <c r="AE43" s="41">
-        <f t="shared" ca="1" si="93"/>
+      <c r="AE43" s="40">
+        <f t="shared" ca="1" si="103"/>
         <v>26.806799999999999</v>
       </c>
-      <c r="AF43" s="34">
-        <f t="shared" ca="1" si="94"/>
+      <c r="AF43" s="33">
+        <f t="shared" ca="1" si="104"/>
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="34"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
       <c r="AW43" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX43" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY43" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ43" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA43" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB43" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32445,64 +32438,64 @@
       <c r="E44">
         <v>-2.2913999999999999</v>
       </c>
-      <c r="Z44" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z44" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>7.358205393348527E-5</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>187</v>
       </c>
       <c r="AB44" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd041</v>
       </c>
-      <c r="AC44" s="41">
-        <f t="shared" ref="AC44:AC45" ca="1" si="95">INDIRECT(_xlfn.CONCAT("D",AA44+1))</f>
+      <c r="AC44" s="40">
+        <f t="shared" ref="AC44:AC45" ca="1" si="105">INDIRECT(_xlfn.CONCAT("D",AA44+1))</f>
         <v>-1.2571000000000001</v>
       </c>
-      <c r="AD44" s="41">
-        <f t="shared" ref="AD44:AD45" ca="1" si="96">INDIRECT(_xlfn.CONCAT("D",AA44+2))</f>
+      <c r="AD44" s="40">
+        <f t="shared" ref="AD44:AD45" ca="1" si="106">INDIRECT(_xlfn.CONCAT("D",AA44+2))</f>
         <v>2.427</v>
       </c>
-      <c r="AE44" s="41">
-        <f t="shared" ref="AE44:AE45" ca="1" si="97">INDIRECT(_xlfn.CONCAT("D",AA44+3))</f>
+      <c r="AE44" s="40">
+        <f t="shared" ref="AE44:AE45" ca="1" si="107">INDIRECT(_xlfn.CONCAT("D",AA44+3))</f>
         <v>27.006799999999998</v>
       </c>
-      <c r="AF44" s="34">
-        <f t="shared" ca="1" si="94"/>
+      <c r="AF44" s="33">
+        <f t="shared" ca="1" si="104"/>
         <v>-2.8799999999999999E-2</v>
       </c>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="34"/>
-      <c r="AM44" s="34"/>
-      <c r="AN44" s="34"/>
+      <c r="AG44" s="33"/>
+      <c r="AH44" s="33"/>
+      <c r="AI44" s="33"/>
+      <c r="AJ44" s="33"/>
+      <c r="AK44" s="33"/>
+      <c r="AL44" s="33"/>
+      <c r="AM44" s="33"/>
+      <c r="AN44" s="33"/>
       <c r="AW44" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX44" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY44" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ44" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA44" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB44" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32519,64 +32512,64 @@
       <c r="E45">
         <v>1.4536</v>
       </c>
-      <c r="Z45" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z45" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-1.6502306346444229E-4</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>192</v>
       </c>
       <c r="AB45" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd042</v>
       </c>
-      <c r="AC45" s="41">
-        <f t="shared" ca="1" si="95"/>
+      <c r="AC45" s="40">
+        <f t="shared" ca="1" si="105"/>
         <v>-1.2574000000000001</v>
       </c>
-      <c r="AD45" s="41">
-        <f t="shared" ca="1" si="96"/>
+      <c r="AD45" s="40">
+        <f t="shared" ca="1" si="106"/>
         <v>2.4241000000000001</v>
       </c>
-      <c r="AE45" s="41">
-        <f t="shared" ca="1" si="97"/>
+      <c r="AE45" s="40">
+        <f t="shared" ca="1" si="107"/>
         <v>26.929300000000001</v>
       </c>
-      <c r="AF45" s="34">
-        <f t="shared" ca="1" si="94"/>
+      <c r="AF45" s="33">
+        <f t="shared" ca="1" si="104"/>
         <v>-1.23E-2</v>
       </c>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="34"/>
-      <c r="AL45" s="34"/>
-      <c r="AM45" s="34"/>
-      <c r="AN45" s="34"/>
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="33"/>
+      <c r="AL45" s="33"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
       <c r="AW45" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX45" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY45" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ45" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA45" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB45" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32587,64 +32580,64 @@
       <c r="B46">
         <v>991.63</v>
       </c>
-      <c r="Z46" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z46" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-3.2402989821889161E-4</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>197</v>
       </c>
       <c r="AB46" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd043</v>
       </c>
-      <c r="AC46" s="41">
-        <f t="shared" ref="AC46" ca="1" si="98">INDIRECT(_xlfn.CONCAT("D",AA46+1))</f>
+      <c r="AC46" s="40">
+        <f t="shared" ref="AC46" ca="1" si="108">INDIRECT(_xlfn.CONCAT("D",AA46+1))</f>
         <v>-1.2576000000000001</v>
       </c>
-      <c r="AD46" s="41">
-        <f t="shared" ref="AD46" ca="1" si="99">INDIRECT(_xlfn.CONCAT("D",AA46+2))</f>
+      <c r="AD46" s="40">
+        <f t="shared" ref="AD46" ca="1" si="109">INDIRECT(_xlfn.CONCAT("D",AA46+2))</f>
         <v>2.4222999999999999</v>
       </c>
-      <c r="AE46" s="41">
-        <f t="shared" ref="AE46" ca="1" si="100">INDIRECT(_xlfn.CONCAT("D",AA46+3))</f>
+      <c r="AE46" s="40">
+        <f t="shared" ref="AE46" ca="1" si="110">INDIRECT(_xlfn.CONCAT("D",AA46+3))</f>
         <v>26.709399999999999</v>
       </c>
-      <c r="AF46" s="34">
-        <f t="shared" ref="AF46" ca="1" si="101">INDIRECT(_xlfn.CONCAT("E",AA46+1))</f>
+      <c r="AF46" s="33">
+        <f t="shared" ref="AF46" ca="1" si="111">INDIRECT(_xlfn.CONCAT("E",AA46+1))</f>
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="34"/>
-      <c r="AM46" s="34"/>
-      <c r="AN46" s="34"/>
+      <c r="AG46" s="33"/>
+      <c r="AH46" s="33"/>
+      <c r="AI46" s="33"/>
+      <c r="AJ46" s="33"/>
+      <c r="AK46" s="33"/>
+      <c r="AL46" s="33"/>
+      <c r="AM46" s="33"/>
+      <c r="AN46" s="33"/>
       <c r="AW46" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX46" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY46" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ46" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA46" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB46" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32661,64 +32654,64 @@
       <c r="E47" t="s">
         <v>3</v>
       </c>
-      <c r="Z47" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z47" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>-6.4189189189189921E-4</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>202</v>
       </c>
       <c r="AB47" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd044</v>
       </c>
-      <c r="AC47" s="41">
-        <f t="shared" ref="AC47" ca="1" si="102">INDIRECT(_xlfn.CONCAT("D",AA47+1))</f>
+      <c r="AC47" s="40">
+        <f t="shared" ref="AC47" ca="1" si="112">INDIRECT(_xlfn.CONCAT("D",AA47+1))</f>
         <v>-1.258</v>
       </c>
-      <c r="AD47" s="41">
-        <f t="shared" ref="AD47" ca="1" si="103">INDIRECT(_xlfn.CONCAT("D",AA47+2))</f>
+      <c r="AD47" s="40">
+        <f t="shared" ref="AD47" ca="1" si="113">INDIRECT(_xlfn.CONCAT("D",AA47+2))</f>
         <v>2.4186000000000001</v>
       </c>
-      <c r="AE47" s="41">
-        <f t="shared" ref="AE47" ca="1" si="104">INDIRECT(_xlfn.CONCAT("D",AA47+3))</f>
+      <c r="AE47" s="40">
+        <f t="shared" ref="AE47" ca="1" si="114">INDIRECT(_xlfn.CONCAT("D",AA47+3))</f>
         <v>26.6965</v>
       </c>
-      <c r="AF47" s="34">
-        <f t="shared" ca="1" si="94"/>
+      <c r="AF47" s="33">
+        <f t="shared" ca="1" si="104"/>
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="34"/>
-      <c r="AM47" s="34"/>
-      <c r="AN47" s="34"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33"/>
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
       <c r="AW47" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX47" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY47" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ47" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA47" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB47" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32735,64 +32728,64 @@
       <c r="E48">
         <v>-7.1300000000000002E-2</v>
       </c>
-      <c r="Z48" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z48" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>2.3271541093161652E-4</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>207</v>
       </c>
       <c r="AB48" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd045</v>
       </c>
-      <c r="AC48" s="41">
-        <f t="shared" ref="AC48" ca="1" si="105">INDIRECT(_xlfn.CONCAT("D",AA48+1))</f>
+      <c r="AC48" s="40">
+        <f t="shared" ref="AC48" ca="1" si="115">INDIRECT(_xlfn.CONCAT("D",AA48+1))</f>
         <v>-1.2568999999999999</v>
       </c>
-      <c r="AD48" s="41">
-        <f t="shared" ref="AD48" ca="1" si="106">INDIRECT(_xlfn.CONCAT("D",AA48+2))</f>
+      <c r="AD48" s="40">
+        <f t="shared" ref="AD48" ca="1" si="116">INDIRECT(_xlfn.CONCAT("D",AA48+2))</f>
         <v>2.4266000000000001</v>
       </c>
-      <c r="AE48" s="41">
-        <f t="shared" ref="AE48" ca="1" si="107">INDIRECT(_xlfn.CONCAT("D",AA48+3))</f>
+      <c r="AE48" s="40">
+        <f t="shared" ref="AE48" ca="1" si="117">INDIRECT(_xlfn.CONCAT("D",AA48+3))</f>
         <v>25.821000000000002</v>
       </c>
-      <c r="AF48" s="34">
-        <f t="shared" ref="AF48" ca="1" si="108">INDIRECT(_xlfn.CONCAT("E",AA48+1))</f>
+      <c r="AF48" s="33">
+        <f t="shared" ref="AF48" ca="1" si="118">INDIRECT(_xlfn.CONCAT("E",AA48+1))</f>
         <v>-4.8599999999999997E-2</v>
       </c>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
+      <c r="AG48" s="33"/>
+      <c r="AH48" s="33"/>
+      <c r="AI48" s="33"/>
+      <c r="AJ48" s="33"/>
+      <c r="AK48" s="33"/>
+      <c r="AL48" s="33"/>
+      <c r="AM48" s="33"/>
+      <c r="AN48" s="33"/>
       <c r="AW48" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX48" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY48" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ48" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA48" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB48" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32815,88 +32808,88 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="U49" s="11"/>
-      <c r="Z49" s="42">
-        <f t="shared" ca="1" si="1"/>
+      <c r="Z49" s="41">
+        <f t="shared" ca="1" si="11"/>
         <v>1.5076077431688262E-3</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>212</v>
       </c>
       <c r="AB49" s="25" t="str">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="96"/>
         <v>bd046</v>
       </c>
-      <c r="AC49" s="41">
-        <f t="shared" ref="AC49:AC51" ca="1" si="109">INDIRECT(_xlfn.CONCAT("D",AA49+1))</f>
+      <c r="AC49" s="40">
+        <f t="shared" ref="AC49:AC51" ca="1" si="119">INDIRECT(_xlfn.CONCAT("D",AA49+1))</f>
         <v>-1.2553000000000001</v>
       </c>
-      <c r="AD49" s="41">
-        <f t="shared" ref="AD49:AD51" ca="1" si="110">INDIRECT(_xlfn.CONCAT("D",AA49+2))</f>
+      <c r="AD49" s="40">
+        <f t="shared" ref="AD49:AD51" ca="1" si="120">INDIRECT(_xlfn.CONCAT("D",AA49+2))</f>
         <v>2.4237000000000002</v>
       </c>
-      <c r="AE49" s="41">
-        <f t="shared" ref="AE49:AE51" ca="1" si="111">INDIRECT(_xlfn.CONCAT("D",AA49+3))</f>
+      <c r="AE49" s="40">
+        <f t="shared" ref="AE49:AE51" ca="1" si="121">INDIRECT(_xlfn.CONCAT("D",AA49+3))</f>
         <v>26.070699999999999</v>
       </c>
-      <c r="AF49" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA49+1))</f>
+      <c r="AF49" s="33">
+        <f t="shared" ref="AF49:AF55" ca="1" si="122">INDIRECT(_xlfn.CONCAT("E",AA49+1))</f>
         <v>-0.17929999999999999</v>
       </c>
-      <c r="AG49" s="34">
-        <f t="shared" ref="AG49" ca="1" si="112">INDIRECT(_xlfn.CONCAT("I",AA49+1))</f>
+      <c r="AG49" s="33">
+        <f t="shared" ref="AG49" ca="1" si="123">INDIRECT(_xlfn.CONCAT("I",AA49+1))</f>
         <v>-1.256</v>
       </c>
-      <c r="AH49" s="34">
-        <f t="shared" ref="AH49" ca="1" si="113">INDIRECT(_xlfn.CONCAT("i",AA49+2))</f>
+      <c r="AH49" s="33">
+        <f t="shared" ref="AH49" ca="1" si="124">INDIRECT(_xlfn.CONCAT("i",AA49+2))</f>
         <v>2.4205000000000001</v>
       </c>
-      <c r="AI49" s="34">
-        <f t="shared" ref="AI49" ca="1" si="114">INDIRECT(_xlfn.CONCAT("I",AA49+3))</f>
+      <c r="AI49" s="33">
+        <f t="shared" ref="AI49" ca="1" si="125">INDIRECT(_xlfn.CONCAT("I",AA49+3))</f>
         <v>26.433599999999998</v>
       </c>
-      <c r="AJ49" s="34">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ49" s="33">
+        <f t="shared" ca="1" si="17"/>
         <v>-0.1202</v>
       </c>
-      <c r="AK49" s="34">
-        <f t="shared" ref="AK49" ca="1" si="115">INDIRECT(_xlfn.CONCAT("n",AA49+1))</f>
+      <c r="AK49" s="33">
+        <f t="shared" ref="AK49" ca="1" si="126">INDIRECT(_xlfn.CONCAT("n",AA49+1))</f>
         <v>-1.256</v>
       </c>
-      <c r="AL49" s="34">
-        <f t="shared" ref="AL49" ca="1" si="116">INDIRECT(_xlfn.CONCAT("n",AA49+2))</f>
+      <c r="AL49" s="33">
+        <f t="shared" ref="AL49" ca="1" si="127">INDIRECT(_xlfn.CONCAT("n",AA49+2))</f>
         <v>2.4222000000000001</v>
       </c>
-      <c r="AM49" s="34">
-        <f t="shared" ref="AM49" ca="1" si="117">INDIRECT(_xlfn.CONCAT("n",AA49+3))</f>
+      <c r="AM49" s="33">
+        <f t="shared" ref="AM49" ca="1" si="128">INDIRECT(_xlfn.CONCAT("n",AA49+3))</f>
         <v>25.887899999999998</v>
       </c>
-      <c r="AN49" s="34">
+      <c r="AN49" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("o",AA49+1))</f>
         <v>-0.1177</v>
       </c>
       <c r="AW49" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX49" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY49" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ49" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA49" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB49" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -32919,9 +32912,9 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="U50" s="11"/>
-      <c r="Z50" s="42"/>
+      <c r="Z50" s="41"/>
       <c r="AA50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>217</v>
       </c>
       <c r="AB50" s="26" t="str">
@@ -32929,51 +32922,51 @@
         <v>bd047</v>
       </c>
       <c r="AC50" s="26">
-        <f t="shared" ca="1" si="109"/>
+        <f t="shared" ca="1" si="119"/>
         <v>-1.2585999999999999</v>
       </c>
       <c r="AD50" s="26">
-        <f t="shared" ca="1" si="110"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2.4236</v>
       </c>
       <c r="AE50" s="26">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="121"/>
         <v>26.348800000000001</v>
       </c>
-      <c r="AF50" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA50+1))</f>
+      <c r="AF50" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="34"/>
-      <c r="AL50" s="34"/>
-      <c r="AM50" s="34"/>
-      <c r="AN50" s="34"/>
+      <c r="AG50" s="33"/>
+      <c r="AH50" s="33"/>
+      <c r="AI50" s="33"/>
+      <c r="AJ50" s="33"/>
+      <c r="AK50" s="33"/>
+      <c r="AL50" s="33"/>
+      <c r="AM50" s="33"/>
+      <c r="AN50" s="33"/>
       <c r="AW50" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX50" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY50" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ50" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA50" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB50" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33001,61 +32994,61 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="Z51" s="42"/>
+      <c r="Z51" s="41"/>
       <c r="AA51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>222</v>
       </c>
       <c r="AB51" s="26" t="str">
-        <f t="shared" ref="AB51:AB60" ca="1" si="118">INDIRECT(_xlfn.CONCAT("D",AA51))</f>
+        <f t="shared" ref="AB51:AB60" ca="1" si="129">INDIRECT(_xlfn.CONCAT("D",AA51))</f>
         <v>bd048</v>
       </c>
       <c r="AC51" s="26">
-        <f t="shared" ca="1" si="109"/>
+        <f t="shared" ca="1" si="119"/>
         <v>-1.2574000000000001</v>
       </c>
       <c r="AD51" s="26">
-        <f t="shared" ca="1" si="110"/>
+        <f t="shared" ca="1" si="120"/>
         <v>2.4205999999999999</v>
       </c>
       <c r="AE51" s="26">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="121"/>
         <v>26.2407</v>
       </c>
-      <c r="AF51" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA51+1))</f>
+      <c r="AF51" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="34"/>
-      <c r="AL51" s="34"/>
-      <c r="AM51" s="34"/>
-      <c r="AN51" s="34"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="33"/>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33"/>
+      <c r="AM51" s="33"/>
+      <c r="AN51" s="33"/>
       <c r="AW51" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX51" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY51" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ51" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA51" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB51" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33101,64 +33094,64 @@
       <c r="X52">
         <v>991.63</v>
       </c>
-      <c r="Z52" s="42">
-        <f t="shared" ref="Z8:Z60" ca="1" si="119">($AC$3/AC52)-1</f>
+      <c r="Z52" s="41">
+        <f t="shared" ref="Z52" ca="1" si="130">($AC$3/AC52)-1</f>
         <v>-2.362339487470555E-4</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>227</v>
       </c>
       <c r="AB52" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd049</v>
       </c>
       <c r="AC52" s="26">
-        <f t="shared" ref="AC52" ca="1" si="120">INDIRECT(_xlfn.CONCAT("D",AA52+1))</f>
+        <f t="shared" ref="AC52" ca="1" si="131">INDIRECT(_xlfn.CONCAT("D",AA52+1))</f>
         <v>-1.2571000000000001</v>
       </c>
       <c r="AD52" s="26">
-        <f t="shared" ref="AD52" ca="1" si="121">INDIRECT(_xlfn.CONCAT("D",AA52+2))</f>
+        <f t="shared" ref="AD52" ca="1" si="132">INDIRECT(_xlfn.CONCAT("D",AA52+2))</f>
         <v>2.4253</v>
       </c>
       <c r="AE52" s="26">
-        <f t="shared" ref="AE52" ca="1" si="122">INDIRECT(_xlfn.CONCAT("D",AA52+3))</f>
+        <f t="shared" ref="AE52" ca="1" si="133">INDIRECT(_xlfn.CONCAT("D",AA52+3))</f>
         <v>26.879300000000001</v>
       </c>
-      <c r="AF52" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA52+1))</f>
+      <c r="AF52" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>-3.4799999999999998E-2</v>
       </c>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
+      <c r="AG52" s="33"/>
+      <c r="AH52" s="33"/>
+      <c r="AI52" s="33"/>
+      <c r="AJ52" s="33"/>
+      <c r="AK52" s="33"/>
+      <c r="AL52" s="33"/>
+      <c r="AM52" s="33"/>
+      <c r="AN52" s="33"/>
       <c r="AW52" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX52" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY52" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ52" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA52" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB52" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33205,61 +33198,61 @@
         <f>X52*0.0015</f>
         <v>1.4874450000000001</v>
       </c>
-      <c r="Z53" s="42"/>
+      <c r="Z53" s="41"/>
       <c r="AA53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>232</v>
       </c>
       <c r="AB53" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd050</v>
       </c>
       <c r="AC53" s="26">
-        <f t="shared" ref="AC53" ca="1" si="123">INDIRECT(_xlfn.CONCAT("D",AA53+1))</f>
+        <f t="shared" ref="AC53" ca="1" si="134">INDIRECT(_xlfn.CONCAT("D",AA53+1))</f>
         <v>-1.2583</v>
       </c>
       <c r="AD53" s="26">
-        <f t="shared" ref="AD53" ca="1" si="124">INDIRECT(_xlfn.CONCAT("D",AA53+2))</f>
+        <f t="shared" ref="AD53" ca="1" si="135">INDIRECT(_xlfn.CONCAT("D",AA53+2))</f>
         <v>2.4178000000000002</v>
       </c>
       <c r="AE53" s="26">
-        <f t="shared" ref="AE53" ca="1" si="125">INDIRECT(_xlfn.CONCAT("D",AA53+3))</f>
+        <f t="shared" ref="AE53" ca="1" si="136">INDIRECT(_xlfn.CONCAT("D",AA53+3))</f>
         <v>26.627099999999999</v>
       </c>
-      <c r="AF53" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA53+1))</f>
+      <c r="AF53" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="33"/>
+      <c r="AL53" s="33"/>
+      <c r="AM53" s="33"/>
+      <c r="AN53" s="33"/>
       <c r="AW53" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX53" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY53" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ53" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA53" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB53" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33302,61 +33295,61 @@
       </c>
       <c r="P54" s="11"/>
       <c r="U54" s="11"/>
-      <c r="Z54" s="42"/>
+      <c r="Z54" s="41"/>
       <c r="AA54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>237</v>
       </c>
       <c r="AB54" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd051</v>
       </c>
       <c r="AC54" s="26">
-        <f t="shared" ref="AC54" ca="1" si="126">INDIRECT(_xlfn.CONCAT("D",AA54+1))</f>
+        <f t="shared" ref="AC54" ca="1" si="137">INDIRECT(_xlfn.CONCAT("D",AA54+1))</f>
         <v>-1.2585999999999999</v>
       </c>
       <c r="AD54" s="26">
-        <f t="shared" ref="AD54" ca="1" si="127">INDIRECT(_xlfn.CONCAT("D",AA54+2))</f>
+        <f t="shared" ref="AD54" ca="1" si="138">INDIRECT(_xlfn.CONCAT("D",AA54+2))</f>
         <v>2.4327000000000001</v>
       </c>
       <c r="AE54" s="26">
-        <f t="shared" ref="AE54" ca="1" si="128">INDIRECT(_xlfn.CONCAT("D",AA54+3))</f>
+        <f t="shared" ref="AE54" ca="1" si="139">INDIRECT(_xlfn.CONCAT("D",AA54+3))</f>
         <v>27.003699999999998</v>
       </c>
-      <c r="AF54" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA54+1))</f>
+      <c r="AF54" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="33"/>
+      <c r="AK54" s="33"/>
+      <c r="AL54" s="33"/>
+      <c r="AM54" s="33"/>
+      <c r="AN54" s="33"/>
       <c r="AW54" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX54" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY54" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ54" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA54" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB54" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33399,61 +33392,61 @@
       </c>
       <c r="P55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="Z55" s="42"/>
+      <c r="Z55" s="41"/>
       <c r="AA55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>242</v>
       </c>
       <c r="AB55" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd052</v>
       </c>
       <c r="AC55" s="26">
-        <f t="shared" ref="AC55" ca="1" si="129">INDIRECT(_xlfn.CONCAT("D",AA55+1))</f>
+        <f t="shared" ref="AC55" ca="1" si="140">INDIRECT(_xlfn.CONCAT("D",AA55+1))</f>
         <v>-1.2561</v>
       </c>
       <c r="AD55" s="26">
-        <f t="shared" ref="AD55" ca="1" si="130">INDIRECT(_xlfn.CONCAT("D",AA55+2))</f>
+        <f t="shared" ref="AD55" ca="1" si="141">INDIRECT(_xlfn.CONCAT("D",AA55+2))</f>
         <v>2.4293</v>
       </c>
       <c r="AE55" s="26">
-        <f t="shared" ref="AE55" ca="1" si="131">INDIRECT(_xlfn.CONCAT("D",AA55+3))</f>
+        <f t="shared" ref="AE55" ca="1" si="142">INDIRECT(_xlfn.CONCAT("D",AA55+3))</f>
         <v>26.224</v>
       </c>
-      <c r="AF55" s="34">
-        <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA55+1))</f>
+      <c r="AF55" s="33">
+        <f t="shared" ca="1" si="122"/>
         <v>-0.11119999999999999</v>
       </c>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="33"/>
+      <c r="AI55" s="33"/>
+      <c r="AJ55" s="33"/>
+      <c r="AK55" s="33"/>
+      <c r="AL55" s="33"/>
+      <c r="AM55" s="33"/>
+      <c r="AN55" s="33"/>
       <c r="AW55" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX55" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY55" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ55" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA55" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB55" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33472,61 +33465,61 @@
       </c>
       <c r="P56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="Z56" s="42"/>
+      <c r="Z56" s="41"/>
       <c r="AA56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>247</v>
       </c>
       <c r="AB56" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd053</v>
       </c>
       <c r="AC56" s="26">
-        <f t="shared" ref="AC56" ca="1" si="132">INDIRECT(_xlfn.CONCAT("D",AA56+1))</f>
+        <f t="shared" ref="AC56" ca="1" si="143">INDIRECT(_xlfn.CONCAT("D",AA56+1))</f>
         <v>-1.2561</v>
       </c>
       <c r="AD56" s="26">
-        <f t="shared" ref="AD56" ca="1" si="133">INDIRECT(_xlfn.CONCAT("D",AA56+2))</f>
+        <f t="shared" ref="AD56" ca="1" si="144">INDIRECT(_xlfn.CONCAT("D",AA56+2))</f>
         <v>2.4241999999999999</v>
       </c>
       <c r="AE56" s="26">
-        <f t="shared" ref="AE56" ca="1" si="134">INDIRECT(_xlfn.CONCAT("D",AA56+3))</f>
+        <f t="shared" ref="AE56" ca="1" si="145">INDIRECT(_xlfn.CONCAT("D",AA56+3))</f>
         <v>26.172999999999998</v>
       </c>
-      <c r="AF56" s="34">
-        <f t="shared" ref="AF56:AF57" ca="1" si="135">INDIRECT(_xlfn.CONCAT("E",AA56+1))</f>
+      <c r="AF56" s="33">
+        <f t="shared" ref="AF56:AF57" ca="1" si="146">INDIRECT(_xlfn.CONCAT("E",AA56+1))</f>
         <v>-0.1128</v>
       </c>
-      <c r="AG56" s="34"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="34"/>
-      <c r="AK56" s="34"/>
-      <c r="AL56" s="34"/>
-      <c r="AM56" s="34"/>
-      <c r="AN56" s="34"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="33"/>
+      <c r="AI56" s="33"/>
+      <c r="AJ56" s="33"/>
+      <c r="AK56" s="33"/>
+      <c r="AL56" s="33"/>
+      <c r="AM56" s="33"/>
+      <c r="AN56" s="33"/>
       <c r="AW56" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX56" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY56" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ56" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA56" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB56" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33557,61 +33550,61 @@
       </c>
       <c r="P57" s="11"/>
       <c r="U57" s="11"/>
-      <c r="Z57" s="42"/>
+      <c r="Z57" s="41"/>
       <c r="AA57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>252</v>
       </c>
       <c r="AB57" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd054</v>
       </c>
       <c r="AC57" s="26">
-        <f t="shared" ref="AC57" ca="1" si="136">INDIRECT(_xlfn.CONCAT("D",AA57+1))</f>
+        <f t="shared" ref="AC57" ca="1" si="147">INDIRECT(_xlfn.CONCAT("D",AA57+1))</f>
         <v>-1.2561</v>
       </c>
       <c r="AD57" s="26">
-        <f t="shared" ref="AD57" ca="1" si="137">INDIRECT(_xlfn.CONCAT("D",AA57+2))</f>
+        <f t="shared" ref="AD57" ca="1" si="148">INDIRECT(_xlfn.CONCAT("D",AA57+2))</f>
         <v>2.4253999999999998</v>
       </c>
       <c r="AE57" s="26">
-        <f t="shared" ref="AE57" ca="1" si="138">INDIRECT(_xlfn.CONCAT("D",AA57+3))</f>
+        <f t="shared" ref="AE57" ca="1" si="149">INDIRECT(_xlfn.CONCAT("D",AA57+3))</f>
         <v>26.456199999999999</v>
       </c>
-      <c r="AF57" s="34">
-        <f t="shared" ca="1" si="135"/>
+      <c r="AF57" s="33">
+        <f t="shared" ca="1" si="146"/>
         <v>-0.1138</v>
       </c>
-      <c r="AG57" s="34"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="34"/>
-      <c r="AJ57" s="34"/>
-      <c r="AK57" s="34"/>
-      <c r="AL57" s="34"/>
-      <c r="AM57" s="34"/>
-      <c r="AN57" s="34"/>
+      <c r="AG57" s="33"/>
+      <c r="AH57" s="33"/>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="33"/>
+      <c r="AK57" s="33"/>
+      <c r="AL57" s="33"/>
+      <c r="AM57" s="33"/>
+      <c r="AN57" s="33"/>
       <c r="AW57" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX57" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY57" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ57" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA57" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB57" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33640,61 +33633,61 @@
       <c r="J58" s="29">
         <v>-0.32300000000000001</v>
       </c>
-      <c r="Z58" s="42"/>
+      <c r="Z58" s="41"/>
       <c r="AA58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>257</v>
       </c>
       <c r="AB58" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd055</v>
       </c>
       <c r="AC58" s="26">
-        <f t="shared" ref="AC58" ca="1" si="139">INDIRECT(_xlfn.CONCAT("D",AA58+1))</f>
+        <f t="shared" ref="AC58" ca="1" si="150">INDIRECT(_xlfn.CONCAT("D",AA58+1))</f>
         <v>-1.2573000000000001</v>
       </c>
       <c r="AD58" s="26">
-        <f t="shared" ref="AD58" ca="1" si="140">INDIRECT(_xlfn.CONCAT("D",AA58+2))</f>
+        <f t="shared" ref="AD58" ca="1" si="151">INDIRECT(_xlfn.CONCAT("D",AA58+2))</f>
         <v>2.4209999999999998</v>
       </c>
       <c r="AE58" s="26">
-        <f t="shared" ref="AE58" ca="1" si="141">INDIRECT(_xlfn.CONCAT("D",AA58+3))</f>
+        <f t="shared" ref="AE58" ca="1" si="152">INDIRECT(_xlfn.CONCAT("D",AA58+3))</f>
         <v>27.156199999999998</v>
       </c>
-      <c r="AF58" s="34">
+      <c r="AF58" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA58+1))</f>
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="34"/>
-      <c r="AL58" s="34"/>
-      <c r="AM58" s="34"/>
-      <c r="AN58" s="34"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
       <c r="AW58" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX58" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY58" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ58" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA58" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB58" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33723,73 +33716,73 @@
       <c r="J59">
         <v>-2.0030999999999999</v>
       </c>
-      <c r="Z59" s="42"/>
+      <c r="Z59" s="41"/>
       <c r="AA59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>262</v>
       </c>
       <c r="AB59" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd056</v>
       </c>
       <c r="AC59" s="26">
-        <f t="shared" ref="AC59" ca="1" si="142">INDIRECT(_xlfn.CONCAT("D",AA59+1))</f>
+        <f t="shared" ref="AC59" ca="1" si="153">INDIRECT(_xlfn.CONCAT("D",AA59+1))</f>
         <v>-1.2598</v>
       </c>
       <c r="AD59" s="26">
-        <f t="shared" ref="AD59" ca="1" si="143">INDIRECT(_xlfn.CONCAT("D",AA59+2))</f>
+        <f t="shared" ref="AD59" ca="1" si="154">INDIRECT(_xlfn.CONCAT("D",AA59+2))</f>
         <v>2.4279999999999999</v>
       </c>
       <c r="AE59" s="26">
-        <f t="shared" ref="AE59" ca="1" si="144">INDIRECT(_xlfn.CONCAT("D",AA59+3))</f>
+        <f t="shared" ref="AE59" ca="1" si="155">INDIRECT(_xlfn.CONCAT("D",AA59+3))</f>
         <v>27.023399999999999</v>
       </c>
-      <c r="AF59" s="34">
+      <c r="AF59" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA59+1))</f>
         <v>0.18210000000000001</v>
       </c>
-      <c r="AG59" s="34">
-        <f t="shared" ref="AG59" ca="1" si="145">INDIRECT(_xlfn.CONCAT("I",AA59+1))</f>
+      <c r="AG59" s="33">
+        <f t="shared" ref="AG59" ca="1" si="156">INDIRECT(_xlfn.CONCAT("I",AA59+1))</f>
         <v>-1.2596000000000001</v>
       </c>
-      <c r="AH59" s="34">
-        <f t="shared" ref="AH59" ca="1" si="146">INDIRECT(_xlfn.CONCAT("i",AA59+2))</f>
+      <c r="AH59" s="33">
+        <f t="shared" ref="AH59" ca="1" si="157">INDIRECT(_xlfn.CONCAT("i",AA59+2))</f>
         <v>2.4201999999999999</v>
       </c>
-      <c r="AI59" s="34">
-        <f t="shared" ref="AI59" ca="1" si="147">INDIRECT(_xlfn.CONCAT("I",AA59+3))</f>
+      <c r="AI59" s="33">
+        <f t="shared" ref="AI59" ca="1" si="158">INDIRECT(_xlfn.CONCAT("I",AA59+3))</f>
         <v>27.064800000000002</v>
       </c>
-      <c r="AJ59" s="34">
-        <f t="shared" ref="AJ59" ca="1" si="148">INDIRECT(_xlfn.CONCAT("j",AA59+1))</f>
+      <c r="AJ59" s="33">
+        <f t="shared" ref="AJ59" ca="1" si="159">INDIRECT(_xlfn.CONCAT("j",AA59+1))</f>
         <v>0.1681</v>
       </c>
-      <c r="AK59" s="34"/>
-      <c r="AL59" s="34"/>
-      <c r="AM59" s="34"/>
-      <c r="AN59" s="34"/>
+      <c r="AK59" s="33"/>
+      <c r="AL59" s="33"/>
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
       <c r="AW59" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX59" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY59" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ59" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA59" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB59" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -33818,61 +33811,61 @@
       <c r="J60">
         <v>2.6589999999999998</v>
       </c>
-      <c r="Z60" s="42"/>
+      <c r="Z60" s="41"/>
       <c r="AA60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>267</v>
       </c>
       <c r="AB60" s="26" t="str">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="129"/>
         <v>bd057</v>
       </c>
       <c r="AC60" s="26">
-        <f t="shared" ref="AC60" ca="1" si="149">INDIRECT(_xlfn.CONCAT("D",AA60+1))</f>
+        <f t="shared" ref="AC60" ca="1" si="160">INDIRECT(_xlfn.CONCAT("D",AA60+1))</f>
         <v>-1.2575000000000001</v>
       </c>
       <c r="AD60" s="26">
-        <f t="shared" ref="AD60" ca="1" si="150">INDIRECT(_xlfn.CONCAT("D",AA60+2))</f>
+        <f t="shared" ref="AD60" ca="1" si="161">INDIRECT(_xlfn.CONCAT("D",AA60+2))</f>
         <v>2.4319000000000002</v>
       </c>
       <c r="AE60" s="26">
-        <f t="shared" ref="AE60" ca="1" si="151">INDIRECT(_xlfn.CONCAT("D",AA60+3))</f>
+        <f t="shared" ref="AE60" ca="1" si="162">INDIRECT(_xlfn.CONCAT("D",AA60+3))</f>
         <v>26.083600000000001</v>
       </c>
-      <c r="AF60" s="34">
+      <c r="AF60" s="33">
         <f ca="1">INDIRECT(_xlfn.CONCAT("E",AA60+1))</f>
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="AG60" s="34"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="34"/>
-      <c r="AK60" s="34"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="34"/>
-      <c r="AN60" s="34"/>
+      <c r="AG60" s="33"/>
+      <c r="AH60" s="33"/>
+      <c r="AI60" s="33"/>
+      <c r="AJ60" s="33"/>
+      <c r="AK60" s="33"/>
+      <c r="AL60" s="33"/>
+      <c r="AM60" s="33"/>
+      <c r="AN60" s="33"/>
       <c r="AW60" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-1.2593862500000002</v>
       </c>
       <c r="AX60" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-1.25561375</v>
       </c>
       <c r="AY60" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.5407700000000002</v>
       </c>
       <c r="AZ60" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>2.41683</v>
       </c>
       <c r="BA60" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>28.703023999999999</v>
       </c>
       <c r="BB60" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>22.552376000000002</v>
       </c>
     </row>
@@ -37172,49 +37165,49 @@
     <mergeCell ref="AK5:AM5"/>
   </mergeCells>
   <conditionalFormatting sqref="AF7:AF49 AJ7:AJ58 AN7:AN60 AF52:AF53 AF58:AF60 AJ60">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="notBetween">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z60">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="notBetween">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="notBetween">
       <formula>-$AC$2</formula>
       <formula>$AC$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF53">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="notBetween">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF50">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="notBetween">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF54">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF55:AF57">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF51">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF54">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
       <formula>-$AC$2*100</formula>
       <formula>$AC$2*100</formula>
     </cfRule>
@@ -37235,8 +37228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="L34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37294,15 +37287,15 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="42">
         <f>AVERAGE(B7:B60)</f>
         <v>-1.257038888888889</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <f t="shared" ref="C3:D3" si="0">AVERAGE(C7:C60)</f>
         <v>2.4278259259259261</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <f t="shared" si="0"/>
         <v>26.613029629629619</v>
       </c>
@@ -37311,15 +37304,15 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <f>_xlfn.STDEV.S(B7:B60)</f>
         <v>1.32955045128633E-3</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <f t="shared" ref="C4:D4" si="1">_xlfn.STDEV.S(C7:C60)</f>
         <v>6.3100454558415921E-3</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="42">
         <f t="shared" si="1"/>
         <v>0.48206254922952851</v>
       </c>
@@ -37340,81 +37333,81 @@
         <f t="shared" si="2"/>
         <v>1.8113779450830512E-2</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="Q6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="48" t="s">
+      <c r="R6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="48" t="s">
+      <c r="S6" s="46" t="s">
         <v>87</v>
       </c>
     </row>
@@ -37431,14 +37424,14 @@
       <c r="D7" s="28">
         <v>26.6981</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>-4.3900000000000002E-2</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <f>(B7/$B$1)-1</f>
         <v>-3.9761431411544645E-4</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="44">
         <f>(B7/$B$3)-1</f>
         <v>-3.0936901978861897E-5</v>
       </c>
@@ -37504,14 +37497,14 @@
       <c r="D8" s="28">
         <v>25.741599999999998</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>2.8E-3</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <f t="shared" ref="F8:F60" si="3">(B8/$B$1)-1</f>
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="44">
         <f t="shared" ref="G8:G60" si="4">(B8/$B$3)-1</f>
         <v>3.6682326631809481E-4</v>
       </c>
@@ -37577,14 +37570,14 @@
       <c r="D9" s="28">
         <v>26.648399999999999</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <f t="shared" si="3"/>
         <v>3.9761431411533543E-4</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <f t="shared" si="4"/>
         <v>7.6458343461482947E-4</v>
       </c>
@@ -37650,14 +37643,14 @@
       <c r="D10" s="28">
         <v>26.9358</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>-0.18940000000000001</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f t="shared" si="3"/>
         <v>-1.9085487077534768E-3</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f t="shared" si="4"/>
         <v>-1.5424255415062982E-3</v>
       </c>
@@ -37723,14 +37716,14 @@
       <c r="D11" s="28">
         <v>26.722899999999999</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>0.1046</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <f t="shared" si="3"/>
         <v>1.0337972166996057E-3</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="44">
         <f t="shared" si="4"/>
         <v>1.4009997038895161E-3</v>
       </c>
@@ -37796,14 +37789,14 @@
       <c r="D12" s="28">
         <v>26.910900000000002</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>-7.0099999999999996E-2</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <f t="shared" si="3"/>
         <v>-7.157057654076926E-4</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <f t="shared" si="4"/>
         <v>-3.4914503661620522E-4</v>
       </c>
@@ -37869,14 +37862,14 @@
       <c r="D13" s="28">
         <v>26.671600000000002</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <f t="shared" si="3"/>
         <v>7.9522862823044882E-4</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="44">
         <f t="shared" si="4"/>
         <v>1.1623436029113421E-3</v>
       </c>
@@ -37942,14 +37935,14 @@
       <c r="D14" s="28">
         <v>26.535499999999999</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f t="shared" si="3"/>
         <v>1.1928429423457843E-3</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f t="shared" si="4"/>
         <v>1.5601037712080768E-3</v>
       </c>
@@ -38015,14 +38008,14 @@
       <c r="D15" s="28">
         <v>26.0002</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>-6.9199999999999998E-2</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <f t="shared" si="3"/>
         <v>-7.157057654076926E-4</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="44">
         <f t="shared" si="4"/>
         <v>-3.4914503661620522E-4</v>
       </c>
@@ -38088,14 +38081,14 @@
       <c r="D16" s="28">
         <v>27.282499999999999</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>-7.1300000000000002E-2</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <f t="shared" si="3"/>
         <v>-7.157057654076926E-4</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <f t="shared" si="4"/>
         <v>-3.4914503661620522E-4</v>
       </c>
@@ -38161,14 +38154,14 @@
       <c r="D17" s="28">
         <v>26.468299999999999</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>-0.2321</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <f t="shared" si="3"/>
         <v>-2.3061630218689233E-3</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="44">
         <f t="shared" si="4"/>
         <v>-1.9401857098031439E-3</v>
       </c>
@@ -38234,14 +38227,14 @@
       <c r="D18" s="28">
         <v>27.087900000000001</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>-0.32219999999999999</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <f t="shared" si="3"/>
         <v>-3.1809145129224614E-3</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="44">
         <f t="shared" si="4"/>
         <v>-2.8152580800558935E-3</v>
       </c>
@@ -38307,14 +38300,14 @@
       <c r="D19" s="28">
         <v>26.557500000000001</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>1.4E-2</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <f t="shared" si="3"/>
         <v>1.5904572564617858E-4</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="44">
         <f t="shared" si="4"/>
         <v>5.2592733363665545E-4</v>
       </c>
@@ -38380,14 +38373,14 @@
       <c r="D20" s="28">
         <v>26.644100000000002</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>-3.1399999999999997E-2</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <f t="shared" si="3"/>
         <v>-3.1809145129224614E-4</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="44">
         <f t="shared" si="4"/>
         <v>4.8615131680751489E-5</v>
       </c>
@@ -38453,14 +38446,14 @@
       <c r="D21" s="28">
         <v>26.831299999999999</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>-0.14729999999999999</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <f t="shared" si="3"/>
         <v>-1.4314115308151631E-3</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="44">
         <f t="shared" si="4"/>
         <v>-1.0651133395502832E-3</v>
       </c>
@@ -38526,14 +38519,14 @@
       <c r="D22" s="28">
         <v>26.4712</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>0.12989999999999999</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="44">
         <f t="shared" si="3"/>
         <v>1.2723658051689846E-3</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="44">
         <f t="shared" si="4"/>
         <v>1.6396558048676901E-3</v>
       </c>
@@ -38599,14 +38592,14 @@
       <c r="D23" s="28">
         <v>26.0943</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <v>0.11990000000000001</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <f t="shared" si="3"/>
         <v>1.1928429423457843E-3</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="44">
         <f t="shared" si="4"/>
         <v>1.5601037712080768E-3</v>
       </c>
@@ -38672,14 +38665,14 @@
       <c r="D24" s="28">
         <v>26.8156</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>-0.13039999999999999</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="44">
         <f t="shared" si="3"/>
         <v>-1.2723658051689846E-3</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="44">
         <f t="shared" si="4"/>
         <v>-9.0600927223161154E-4</v>
       </c>
@@ -38745,14 +38738,14 @@
       <c r="D25" s="28">
         <v>26.536300000000001</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="45">
         <v>-0.1</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <f t="shared" si="3"/>
         <v>-9.5427435387684945E-4</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="44">
         <f t="shared" si="4"/>
         <v>-5.8780113759426822E-4</v>
       </c>
@@ -38818,14 +38811,14 @@
       <c r="D26" s="28">
         <v>27.414100000000001</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>2.24E-2</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <f t="shared" si="3"/>
         <v>2.3856858846915685E-4</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="44">
         <f t="shared" si="4"/>
         <v>6.0547936729604679E-4</v>
       </c>
@@ -38891,14 +38884,14 @@
       <c r="D27" s="28">
         <v>26.977499999999999</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>8.5199999999999998E-2</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="44">
         <f t="shared" si="3"/>
         <v>8.7475149105364913E-4</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="44">
         <f t="shared" si="4"/>
         <v>1.2418956365707334E-3</v>
       </c>
@@ -38964,14 +38957,14 @@
       <c r="D28" s="28">
         <v>26.6173</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>-6.2399999999999997E-2</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="44">
         <f t="shared" si="3"/>
         <v>-6.361829025846033E-4</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="44">
         <f t="shared" si="4"/>
         <v>-2.6959300295681388E-4</v>
       </c>
@@ -39037,14 +39030,14 @@
       <c r="D29" s="28">
         <v>26.561800000000002</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="45">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="44">
         <f t="shared" si="4"/>
         <v>3.6682326631809481E-4</v>
       </c>
@@ -39110,14 +39103,14 @@
       <c r="D30" s="28">
         <v>27.1432</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>-5.5E-2</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="44">
         <f t="shared" si="3"/>
         <v>-5.5666003976151401E-4</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="44">
         <f t="shared" si="4"/>
         <v>-1.9004096929753356E-4</v>
       </c>
@@ -39183,14 +39176,14 @@
       <c r="D31" s="28">
         <v>25.814</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="45">
         <v>-7.4700000000000003E-2</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="44">
         <f t="shared" si="3"/>
         <v>-7.157057654076926E-4</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="44">
         <f t="shared" si="4"/>
         <v>-3.4914503661620522E-4</v>
       </c>
@@ -39256,14 +39249,14 @@
       <c r="D32" s="28">
         <v>26.348600000000001</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>-0.18970000000000001</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="44">
         <f t="shared" si="3"/>
         <v>-1.9085487077534768E-3</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="44">
         <f t="shared" si="4"/>
         <v>-1.5424255415062982E-3</v>
       </c>
@@ -39329,14 +39322,14 @@
       <c r="D33" s="28">
         <v>26.6464</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>-0.1399</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="44">
         <f t="shared" si="3"/>
         <v>-1.3518886679920739E-3</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="44">
         <f t="shared" si="4"/>
         <v>-9.8556130589089186E-4</v>
       </c>
@@ -39402,14 +39395,14 @@
       <c r="D34" s="28">
         <v>26.664899999999999</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>-6.3399999999999998E-2</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="44">
         <f t="shared" si="3"/>
         <v>-6.361829025846033E-4</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="44">
         <f t="shared" si="4"/>
         <v>-2.6959300295681388E-4</v>
       </c>
@@ -39475,14 +39468,14 @@
       <c r="D35" s="28">
         <v>25.909099999999999</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>-0.14280000000000001</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="44">
         <f t="shared" si="3"/>
         <v>-1.4314115308151631E-3</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="44">
         <f t="shared" si="4"/>
         <v>-1.0651133395502832E-3</v>
       </c>
@@ -39548,14 +39541,14 @@
       <c r="D36" s="28">
         <v>26.2608</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="44">
         <f t="shared" si="3"/>
         <v>7.9522862823044882E-4</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="44">
         <f t="shared" si="4"/>
         <v>1.1623436029113421E-3</v>
       </c>
@@ -39621,14 +39614,14 @@
       <c r="D37" s="28">
         <v>27.072800000000001</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <v>-0.19009999999999999</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="44">
         <f t="shared" si="3"/>
         <v>-1.9085487077534768E-3</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="44">
         <f t="shared" si="4"/>
         <v>-1.5424255415062982E-3</v>
       </c>
@@ -39694,14 +39687,14 @@
       <c r="D38" s="28">
         <v>26.152100000000001</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="45">
         <v>-0.23150000000000001</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="44">
         <f t="shared" si="3"/>
         <v>-2.3061630218689233E-3</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="44">
         <f t="shared" si="4"/>
         <v>-1.9401857098031439E-3</v>
       </c>
@@ -39767,14 +39760,14 @@
       <c r="D39" s="28">
         <v>26.800599999999999</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="45">
         <v>-0.1464</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="44">
         <f t="shared" si="3"/>
         <v>-1.4314115308151631E-3</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="44">
         <f t="shared" si="4"/>
         <v>-1.0651133395502832E-3</v>
       </c>
@@ -39840,14 +39833,14 @@
       <c r="D40" s="28">
         <v>27.121300000000002</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>0.1172</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="44">
         <f t="shared" si="3"/>
         <v>1.1928429423457843E-3</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="44">
         <f t="shared" si="4"/>
         <v>1.5601037712080768E-3</v>
       </c>
@@ -39913,14 +39906,14 @@
       <c r="D41" s="28">
         <v>25.584</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="45">
         <v>-8.4199999999999997E-2</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="44">
         <f t="shared" si="3"/>
         <v>-7.9522862823067086E-4</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="44">
         <f t="shared" si="4"/>
         <v>-4.2869707027559656E-4</v>
       </c>
@@ -39986,14 +39979,14 @@
       <c r="D42" s="28">
         <v>28.245999999999999</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="45">
         <v>-4.8599999999999997E-2</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="44">
         <f t="shared" si="3"/>
         <v>-4.7713717693853575E-4</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="44">
         <f t="shared" si="4"/>
         <v>-1.1048893563814222E-4</v>
       </c>
@@ -40059,14 +40052,14 @@
       <c r="D43" s="28">
         <v>26.806799999999999</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="45">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="44">
         <f t="shared" si="3"/>
         <v>5.5666003976129197E-4</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="44">
         <f t="shared" si="4"/>
         <v>9.2368750193339011E-4</v>
       </c>
@@ -40132,14 +40125,14 @@
       <c r="D44" s="28">
         <v>27.006799999999998</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="45">
         <v>-2.8799999999999999E-2</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="44">
         <f t="shared" si="3"/>
         <v>-3.1809145129224614E-4</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="44">
         <f t="shared" si="4"/>
         <v>4.8615131680751489E-5</v>
       </c>
@@ -40205,14 +40198,14 @@
       <c r="D45" s="28">
         <v>26.929300000000001</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="45">
         <v>-1.23E-2</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="44">
         <f t="shared" si="3"/>
         <v>-7.9522862823089291E-5</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="44">
         <f t="shared" si="4"/>
         <v>2.8727123265870347E-4</v>
       </c>
@@ -40278,14 +40271,14 @@
       <c r="D46" s="28">
         <v>26.709399999999999</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="45">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="44">
         <f t="shared" si="3"/>
         <v>7.9522862822978269E-5</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="44">
         <f t="shared" si="4"/>
         <v>4.4637529997748615E-4</v>
       </c>
@@ -40351,14 +40344,14 @@
       <c r="D47" s="28">
         <v>26.6965</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="45">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="44">
         <f t="shared" si="3"/>
         <v>3.9761431411533543E-4</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="44">
         <f t="shared" si="4"/>
         <v>7.6458343461482947E-4</v>
       </c>
@@ -40424,14 +40417,14 @@
       <c r="D48" s="28">
         <v>25.821000000000002</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="45">
         <v>-4.8599999999999997E-2</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="44">
         <f t="shared" si="3"/>
         <v>-4.7713717693853575E-4</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="44">
         <f t="shared" si="4"/>
         <v>-1.1048893563814222E-4</v>
       </c>
@@ -40497,14 +40490,14 @@
       <c r="D49" s="28">
         <v>25.887899999999998</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="45">
         <v>-0.1177</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="44">
         <f t="shared" si="3"/>
         <v>-1.1928429423460063E-3</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="44">
         <f t="shared" si="4"/>
         <v>-8.264572385722202E-4</v>
       </c>
@@ -40570,14 +40563,14 @@
       <c r="D50" s="28">
         <v>26.348800000000001</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="45">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="44">
         <f t="shared" si="3"/>
         <v>8.7475149105364913E-4</v>
       </c>
-      <c r="G50" s="45">
+      <c r="G50" s="44">
         <f t="shared" si="4"/>
         <v>1.2418956365707334E-3</v>
       </c>
@@ -40643,14 +40636,14 @@
       <c r="D51" s="28">
         <v>26.2407</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="45">
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="44">
         <f t="shared" si="3"/>
         <v>-7.9522862823089291E-5</v>
       </c>
-      <c r="G51" s="45">
+      <c r="G51" s="44">
         <f t="shared" si="4"/>
         <v>2.8727123265870347E-4</v>
       </c>
@@ -40716,14 +40709,14 @@
       <c r="D52" s="28">
         <v>26.879300000000001</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="45">
         <v>-3.4799999999999998E-2</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="44">
         <f t="shared" si="3"/>
         <v>-3.1809145129224614E-4</v>
       </c>
-      <c r="G52" s="45">
+      <c r="G52" s="44">
         <f t="shared" si="4"/>
         <v>4.8615131680751489E-5</v>
       </c>
@@ -40789,14 +40782,14 @@
       <c r="D53" s="28">
         <v>26.627099999999999</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="45">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="44">
         <f t="shared" si="3"/>
         <v>6.3618290258449228E-4</v>
       </c>
-      <c r="G53" s="45">
+      <c r="G53" s="44">
         <f t="shared" si="4"/>
         <v>1.0032395355927815E-3</v>
       </c>
@@ -40862,14 +40855,14 @@
       <c r="D54" s="28">
         <v>27.003699999999998</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="45">
         <v>8.7800000000000003E-2</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="44">
         <f t="shared" si="3"/>
         <v>8.7475149105364913E-4</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="44">
         <f t="shared" si="4"/>
         <v>1.2418956365707334E-3</v>
       </c>
@@ -40935,14 +40928,14 @@
       <c r="D55" s="28">
         <v>26.224</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="45">
         <v>-0.11119999999999999</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="44">
         <f t="shared" si="3"/>
         <v>-1.113320079522917E-3</v>
       </c>
-      <c r="G55" s="45">
+      <c r="G55" s="44">
         <f t="shared" si="4"/>
         <v>-7.4690520491293988E-4</v>
       </c>
@@ -41008,14 +41001,14 @@
       <c r="D56" s="28">
         <v>26.172999999999998</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="45">
         <v>-0.1128</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="44">
         <f t="shared" si="3"/>
         <v>-1.113320079522917E-3</v>
       </c>
-      <c r="G56" s="45">
+      <c r="G56" s="44">
         <f t="shared" si="4"/>
         <v>-7.4690520491293988E-4</v>
       </c>
@@ -41081,14 +41074,14 @@
       <c r="D57" s="28">
         <v>26.456199999999999</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="45">
         <v>-0.1138</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="44">
         <f t="shared" si="3"/>
         <v>-1.113320079522917E-3</v>
       </c>
-      <c r="G57" s="45">
+      <c r="G57" s="44">
         <f t="shared" si="4"/>
         <v>-7.4690520491293988E-4</v>
       </c>
@@ -41154,14 +41147,14 @@
       <c r="D58" s="28">
         <v>27.156199999999998</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="45">
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="44">
         <f t="shared" si="3"/>
         <v>-1.5904572564606756E-4</v>
       </c>
-      <c r="G58" s="45">
+      <c r="G58" s="44">
         <f t="shared" si="4"/>
         <v>2.0771919899931213E-4</v>
       </c>
@@ -41227,14 +41220,14 @@
       <c r="D59" s="28">
         <v>27.064800000000002</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="45">
         <v>0.1681</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="44">
         <f t="shared" si="3"/>
         <v>1.66998011928432E-3</v>
       </c>
-      <c r="G59" s="45">
+      <c r="G59" s="44">
         <f t="shared" si="4"/>
         <v>2.0374159731644248E-3</v>
       </c>
@@ -41300,14 +41293,14 @@
       <c r="D60" s="28">
         <v>26.083600000000001</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="45">
         <v>-2.7000000000000001E-3</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="44">
         <f t="shared" si="4"/>
         <v>3.6682326631809481E-4</v>
       </c>
@@ -41381,8 +41374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
